--- a/public/docs/index_05_dim_CG.xlsx
+++ b/public/docs/index_05_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1019">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2451,6 +2451,9 @@
   </si>
   <si>
     <t xml:space="preserve">08.534.605/0001-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENOVA ENERGIA S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">RENOVA ENERGIA S.A. - EM RECUPERAÇÃO JUDICIAL</t>
@@ -60337,10 +60340,10 @@
         <v>812</v>
       </c>
       <c r="B1964" s="1" t="n">
-        <v>43830</v>
+        <v>44561</v>
       </c>
       <c r="C1964" s="1" t="n">
-        <v>43676</v>
+        <v>44407</v>
       </c>
       <c r="D1964" t="s">
         <v>813</v>
@@ -60358,7 +60361,7 @@
         <v>0.733333333333333</v>
       </c>
       <c r="I1964" t="n">
-        <v>0.805555555555556</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="1965">
@@ -60366,10 +60369,10 @@
         <v>812</v>
       </c>
       <c r="B1965" s="1" t="n">
-        <v>44196</v>
+        <v>44926</v>
       </c>
       <c r="C1965" s="1" t="n">
-        <v>44105</v>
+        <v>44774</v>
       </c>
       <c r="D1965" t="s">
         <v>813</v>
@@ -60395,10 +60398,10 @@
         <v>812</v>
       </c>
       <c r="B1966" s="1" t="n">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="C1966" s="1" t="n">
-        <v>44407</v>
+        <v>45138</v>
       </c>
       <c r="D1966" t="s">
         <v>813</v>
@@ -60424,10 +60427,10 @@
         <v>812</v>
       </c>
       <c r="B1967" s="1" t="n">
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="C1967" s="1" t="n">
-        <v>44774</v>
+        <v>45504</v>
       </c>
       <c r="D1967" t="s">
         <v>813</v>
@@ -60453,13 +60456,13 @@
         <v>812</v>
       </c>
       <c r="B1968" s="1" t="n">
-        <v>45291</v>
+        <v>43830</v>
       </c>
       <c r="C1968" s="1" t="n">
-        <v>45138</v>
+        <v>43676</v>
       </c>
       <c r="D1968" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E1968" t="n">
         <v>0.333333333333333</v>
@@ -60474,7 +60477,7 @@
         <v>0.733333333333333</v>
       </c>
       <c r="I1968" t="n">
-        <v>0.888888888888889</v>
+        <v>0.805555555555556</v>
       </c>
     </row>
     <row r="1969">
@@ -60482,13 +60485,13 @@
         <v>812</v>
       </c>
       <c r="B1969" s="1" t="n">
-        <v>45657</v>
+        <v>44196</v>
       </c>
       <c r="C1969" s="1" t="n">
-        <v>45504</v>
+        <v>44105</v>
       </c>
       <c r="D1969" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E1969" t="n">
         <v>0.333333333333333</v>
@@ -60508,7 +60511,7 @@
     </row>
     <row r="1970">
       <c r="A1970" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1970" s="1" t="n">
         <v>43830</v>
@@ -60517,7 +60520,7 @@
         <v>43677</v>
       </c>
       <c r="D1970" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1970" t="n">
         <v>0.25</v>
@@ -60537,7 +60540,7 @@
     </row>
     <row r="1971">
       <c r="A1971" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1971" s="1" t="n">
         <v>44196</v>
@@ -60546,7 +60549,7 @@
         <v>44103</v>
       </c>
       <c r="D1971" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1971" t="n">
         <v>0.25</v>
@@ -60566,7 +60569,7 @@
     </row>
     <row r="1972">
       <c r="A1972" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1972" s="1" t="n">
         <v>44561</v>
@@ -60575,7 +60578,7 @@
         <v>44406</v>
       </c>
       <c r="D1972" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1972" t="n">
         <v>0.25</v>
@@ -60595,7 +60598,7 @@
     </row>
     <row r="1973">
       <c r="A1973" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1973" s="1" t="n">
         <v>44926</v>
@@ -60604,7 +60607,7 @@
         <v>44768</v>
       </c>
       <c r="D1973" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1973" t="n">
         <v>0.25</v>
@@ -60624,7 +60627,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1974" s="1" t="n">
         <v>45291</v>
@@ -60633,7 +60636,7 @@
         <v>45133</v>
       </c>
       <c r="D1974" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1974" t="n">
         <v>0.25</v>
@@ -60653,7 +60656,7 @@
     </row>
     <row r="1975">
       <c r="A1975" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B1975" s="1" t="n">
         <v>45657</v>
@@ -60662,7 +60665,7 @@
         <v>45504</v>
       </c>
       <c r="D1975" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E1975" t="n">
         <v>0.25</v>
@@ -60682,7 +60685,7 @@
     </row>
     <row r="1976">
       <c r="A1976" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1976" s="1" t="n">
         <v>43830</v>
@@ -60691,7 +60694,7 @@
         <v>43676</v>
       </c>
       <c r="D1976" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1976" t="n">
         <v>0.611111111111111</v>
@@ -60711,7 +60714,7 @@
     </row>
     <row r="1977">
       <c r="A1977" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1977" s="1" t="n">
         <v>44196</v>
@@ -60720,7 +60723,7 @@
         <v>44075</v>
       </c>
       <c r="D1977" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1977" t="n">
         <v>0.611111111111111</v>
@@ -60740,7 +60743,7 @@
     </row>
     <row r="1978">
       <c r="A1978" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1978" s="1" t="n">
         <v>44561</v>
@@ -60749,7 +60752,7 @@
         <v>44406</v>
       </c>
       <c r="D1978" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1978" t="n">
         <v>0.611111111111111</v>
@@ -60769,7 +60772,7 @@
     </row>
     <row r="1979">
       <c r="A1979" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1979" s="1" t="n">
         <v>44926</v>
@@ -60778,7 +60781,7 @@
         <v>44771</v>
       </c>
       <c r="D1979" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1979" t="n">
         <v>0.611111111111111</v>
@@ -60798,7 +60801,7 @@
     </row>
     <row r="1980">
       <c r="A1980" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1980" s="1" t="n">
         <v>45291</v>
@@ -60807,7 +60810,7 @@
         <v>45117</v>
       </c>
       <c r="D1980" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1980" t="n">
         <v>0.611111111111111</v>
@@ -60827,7 +60830,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1981" s="1" t="n">
         <v>45657</v>
@@ -60836,7 +60839,7 @@
         <v>45499</v>
       </c>
       <c r="D1981" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E1981" t="n">
         <v>0.611111111111111</v>
@@ -60856,7 +60859,7 @@
     </row>
     <row r="1982">
       <c r="A1982" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B1982" s="1" t="n">
         <v>44561</v>
@@ -60865,7 +60868,7 @@
         <v>44410</v>
       </c>
       <c r="D1982" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1982" t="n">
         <v>0.388888888888889</v>
@@ -60885,7 +60888,7 @@
     </row>
     <row r="1983">
       <c r="A1983" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B1983" s="1" t="n">
         <v>44926</v>
@@ -60894,7 +60897,7 @@
         <v>44774</v>
       </c>
       <c r="D1983" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1983" t="n">
         <v>0.388888888888889</v>
@@ -60914,7 +60917,7 @@
     </row>
     <row r="1984">
       <c r="A1984" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B1984" s="1" t="n">
         <v>45291</v>
@@ -60923,7 +60926,7 @@
         <v>45138</v>
       </c>
       <c r="D1984" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1984" t="n">
         <v>0.388888888888889</v>
@@ -60943,7 +60946,7 @@
     </row>
     <row r="1985">
       <c r="A1985" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B1985" s="1" t="n">
         <v>45657</v>
@@ -60952,7 +60955,7 @@
         <v>45503</v>
       </c>
       <c r="D1985" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1985" t="n">
         <v>0.388888888888889</v>
@@ -60972,7 +60975,7 @@
     </row>
     <row r="1986">
       <c r="A1986" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1986" s="1" t="n">
         <v>43830</v>
@@ -60981,7 +60984,7 @@
         <v>43641</v>
       </c>
       <c r="D1986" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1986" t="n">
         <v>0.805555555555556</v>
@@ -61001,7 +61004,7 @@
     </row>
     <row r="1987">
       <c r="A1987" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1987" s="1" t="n">
         <v>44196</v>
@@ -61010,7 +61013,7 @@
         <v>44032</v>
       </c>
       <c r="D1987" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1987" t="n">
         <v>0.805555555555556</v>
@@ -61030,7 +61033,7 @@
     </row>
     <row r="1988">
       <c r="A1988" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1988" s="1" t="n">
         <v>44561</v>
@@ -61039,7 +61042,7 @@
         <v>44390</v>
       </c>
       <c r="D1988" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1988" t="n">
         <v>0.805555555555556</v>
@@ -61059,7 +61062,7 @@
     </row>
     <row r="1989">
       <c r="A1989" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1989" s="1" t="n">
         <v>44926</v>
@@ -61068,7 +61071,7 @@
         <v>44768</v>
       </c>
       <c r="D1989" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1989" t="n">
         <v>0.722222222222222</v>
@@ -61088,7 +61091,7 @@
     </row>
     <row r="1990">
       <c r="A1990" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1990" s="1" t="n">
         <v>45291</v>
@@ -61097,7 +61100,7 @@
         <v>45118</v>
       </c>
       <c r="D1990" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1990" t="n">
         <v>0.805555555555556</v>
@@ -61117,7 +61120,7 @@
     </row>
     <row r="1991">
       <c r="A1991" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1991" s="1" t="n">
         <v>45657</v>
@@ -61126,7 +61129,7 @@
         <v>45474</v>
       </c>
       <c r="D1991" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E1991" t="n">
         <v>0.805555555555556</v>
@@ -61146,7 +61149,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1992" s="1" t="n">
         <v>43830</v>
@@ -61155,7 +61158,7 @@
         <v>43677</v>
       </c>
       <c r="D1992" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1992" t="n">
         <v>0.722222222222222</v>
@@ -61175,7 +61178,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1993" s="1" t="n">
         <v>44196</v>
@@ -61184,7 +61187,7 @@
         <v>44043</v>
       </c>
       <c r="D1993" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1993" t="n">
         <v>0.722222222222222</v>
@@ -61204,7 +61207,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1994" s="1" t="n">
         <v>44561</v>
@@ -61213,7 +61216,7 @@
         <v>44408</v>
       </c>
       <c r="D1994" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1994" t="n">
         <v>0.722222222222222</v>
@@ -61233,7 +61236,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>44926</v>
@@ -61242,7 +61245,7 @@
         <v>44775</v>
       </c>
       <c r="D1995" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1995" t="n">
         <v>0.722222222222222</v>
@@ -61262,7 +61265,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -61271,7 +61274,7 @@
         <v>45107</v>
       </c>
       <c r="D1996" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1996" t="n">
         <v>0.722222222222222</v>
@@ -61291,7 +61294,7 @@
     </row>
     <row r="1997">
       <c r="A1997" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1997" s="1" t="n">
         <v>45657</v>
@@ -61300,7 +61303,7 @@
         <v>45636</v>
       </c>
       <c r="D1997" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E1997" t="n">
         <v>0.638888888888889</v>
@@ -61320,7 +61323,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B1998" s="1" t="n">
         <v>43465</v>
@@ -61329,7 +61332,7 @@
         <v>43404</v>
       </c>
       <c r="D1998" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E1998" t="n">
         <v>0.722222222222222</v>
@@ -61349,7 +61352,7 @@
     </row>
     <row r="1999">
       <c r="A1999" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B1999" s="1" t="n">
         <v>43830</v>
@@ -61358,7 +61361,7 @@
         <v>43677</v>
       </c>
       <c r="D1999" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E1999" t="n">
         <v>0.722222222222222</v>
@@ -61378,7 +61381,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2000" s="1" t="n">
         <v>44196</v>
@@ -61387,7 +61390,7 @@
         <v>44056</v>
       </c>
       <c r="D2000" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2000" t="n">
         <v>0.722222222222222</v>
@@ -61407,7 +61410,7 @@
     </row>
     <row r="2001">
       <c r="A2001" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2001" s="1" t="n">
         <v>44561</v>
@@ -61416,7 +61419,7 @@
         <v>44406</v>
       </c>
       <c r="D2001" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2001" t="n">
         <v>0.722222222222222</v>
@@ -61436,7 +61439,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2002" s="1" t="n">
         <v>44926</v>
@@ -61445,7 +61448,7 @@
         <v>44771</v>
       </c>
       <c r="D2002" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2002" t="n">
         <v>0.722222222222222</v>
@@ -61465,7 +61468,7 @@
     </row>
     <row r="2003">
       <c r="A2003" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2003" s="1" t="n">
         <v>45291</v>
@@ -61474,7 +61477,7 @@
         <v>45138</v>
       </c>
       <c r="D2003" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2003" t="n">
         <v>0.722222222222222</v>
@@ -61494,7 +61497,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45657</v>
@@ -61503,7 +61506,7 @@
         <v>45504</v>
       </c>
       <c r="D2004" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2004" t="n">
         <v>0.722222222222222</v>
@@ -61523,7 +61526,7 @@
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B2005" s="1" t="n">
         <v>44196</v>
@@ -61532,7 +61535,7 @@
         <v>44039</v>
       </c>
       <c r="D2005" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E2005" t="n">
         <v>0.583333333333333</v>
@@ -61552,7 +61555,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B2006" s="1" t="n">
         <v>44561</v>
@@ -61561,7 +61564,7 @@
         <v>44409</v>
       </c>
       <c r="D2006" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E2006" t="n">
         <v>0.583333333333333</v>
@@ -61581,7 +61584,7 @@
     </row>
     <row r="2007">
       <c r="A2007" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B2007" s="1" t="n">
         <v>44926</v>
@@ -61590,7 +61593,7 @@
         <v>44771</v>
       </c>
       <c r="D2007" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E2007" t="n">
         <v>0.583333333333333</v>
@@ -61610,7 +61613,7 @@
     </row>
     <row r="2008">
       <c r="A2008" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B2008" s="1" t="n">
         <v>45291</v>
@@ -61619,7 +61622,7 @@
         <v>45135</v>
       </c>
       <c r="D2008" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E2008" t="n">
         <v>0.583333333333333</v>
@@ -61639,7 +61642,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45657</v>
@@ -61648,7 +61651,7 @@
         <v>45504</v>
       </c>
       <c r="D2009" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E2009" t="n">
         <v>0.583333333333333</v>
@@ -61668,7 +61671,7 @@
     </row>
     <row r="2010">
       <c r="A2010" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2010" s="1" t="n">
         <v>43830</v>
@@ -61677,7 +61680,7 @@
         <v>43686</v>
       </c>
       <c r="D2010" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2010" t="n">
         <v>0.333333333333333</v>
@@ -61697,7 +61700,7 @@
     </row>
     <row r="2011">
       <c r="A2011" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2011" s="1" t="n">
         <v>44196</v>
@@ -61706,7 +61709,7 @@
         <v>44103</v>
       </c>
       <c r="D2011" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2011" t="n">
         <v>0.333333333333333</v>
@@ -61726,7 +61729,7 @@
     </row>
     <row r="2012">
       <c r="A2012" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2012" s="1" t="n">
         <v>44561</v>
@@ -61735,7 +61738,7 @@
         <v>44410</v>
       </c>
       <c r="D2012" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2012" t="n">
         <v>0.333333333333333</v>
@@ -61755,7 +61758,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2013" s="1" t="n">
         <v>44926</v>
@@ -61764,7 +61767,7 @@
         <v>44770</v>
       </c>
       <c r="D2013" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2013" t="n">
         <v>0.333333333333333</v>
@@ -61784,7 +61787,7 @@
     </row>
     <row r="2014">
       <c r="A2014" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2014" s="1" t="n">
         <v>45291</v>
@@ -61793,7 +61796,7 @@
         <v>45138</v>
       </c>
       <c r="D2014" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2014" t="n">
         <v>0.333333333333333</v>
@@ -61813,7 +61816,7 @@
     </row>
     <row r="2015">
       <c r="A2015" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2015" s="1" t="n">
         <v>45657</v>
@@ -61822,7 +61825,7 @@
         <v>45503</v>
       </c>
       <c r="D2015" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E2015" t="n">
         <v>0.333333333333333</v>
@@ -61842,7 +61845,7 @@
     </row>
     <row r="2016">
       <c r="A2016" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2016" s="1" t="n">
         <v>43830</v>
@@ -61851,7 +61854,7 @@
         <v>43675</v>
       </c>
       <c r="D2016" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2016" t="n">
         <v>0.527777777777778</v>
@@ -61871,7 +61874,7 @@
     </row>
     <row r="2017">
       <c r="A2017" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2017" s="1" t="n">
         <v>44196</v>
@@ -61880,7 +61883,7 @@
         <v>44041</v>
       </c>
       <c r="D2017" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2017" t="n">
         <v>0.527777777777778</v>
@@ -61900,7 +61903,7 @@
     </row>
     <row r="2018">
       <c r="A2018" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2018" s="1" t="n">
         <v>44561</v>
@@ -61909,7 +61912,7 @@
         <v>44407</v>
       </c>
       <c r="D2018" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2018" t="n">
         <v>0.527777777777778</v>
@@ -61929,7 +61932,7 @@
     </row>
     <row r="2019">
       <c r="A2019" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2019" s="1" t="n">
         <v>44926</v>
@@ -61938,7 +61941,7 @@
         <v>44771</v>
       </c>
       <c r="D2019" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2019" t="n">
         <v>0.527777777777778</v>
@@ -61958,7 +61961,7 @@
     </row>
     <row r="2020">
       <c r="A2020" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2020" s="1" t="n">
         <v>45291</v>
@@ -61967,7 +61970,7 @@
         <v>45135</v>
       </c>
       <c r="D2020" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2020" t="n">
         <v>0.527777777777778</v>
@@ -61987,7 +61990,7 @@
     </row>
     <row r="2021">
       <c r="A2021" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2021" s="1" t="n">
         <v>45657</v>
@@ -61996,7 +61999,7 @@
         <v>45504</v>
       </c>
       <c r="D2021" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2021" t="n">
         <v>0.527777777777778</v>
@@ -62016,7 +62019,7 @@
     </row>
     <row r="2022">
       <c r="A2022" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2022" s="1" t="n">
         <v>43830</v>
@@ -62025,7 +62028,7 @@
         <v>43677</v>
       </c>
       <c r="D2022" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2022" t="n">
         <v>0.638888888888889</v>
@@ -62045,7 +62048,7 @@
     </row>
     <row r="2023">
       <c r="A2023" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2023" s="1" t="n">
         <v>44196</v>
@@ -62054,7 +62057,7 @@
         <v>44104</v>
       </c>
       <c r="D2023" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2023" t="n">
         <v>0.638888888888889</v>
@@ -62074,7 +62077,7 @@
     </row>
     <row r="2024">
       <c r="A2024" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2024" s="1" t="n">
         <v>44561</v>
@@ -62083,7 +62086,7 @@
         <v>44407</v>
       </c>
       <c r="D2024" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2024" t="n">
         <v>0.638888888888889</v>
@@ -62103,7 +62106,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2025" s="1" t="n">
         <v>44926</v>
@@ -62112,7 +62115,7 @@
         <v>44770</v>
       </c>
       <c r="D2025" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2025" t="n">
         <v>0.638888888888889</v>
@@ -62132,7 +62135,7 @@
     </row>
     <row r="2026">
       <c r="A2026" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2026" s="1" t="n">
         <v>45291</v>
@@ -62141,7 +62144,7 @@
         <v>45138</v>
       </c>
       <c r="D2026" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2026" t="n">
         <v>0.638888888888889</v>
@@ -62161,7 +62164,7 @@
     </row>
     <row r="2027">
       <c r="A2027" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2027" s="1" t="n">
         <v>43555</v>
@@ -62170,7 +62173,7 @@
         <v>43403</v>
       </c>
       <c r="D2027" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2027" t="n">
         <v>0.583333333333333</v>
@@ -62190,7 +62193,7 @@
     </row>
     <row r="2028">
       <c r="A2028" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2028" s="1" t="n">
         <v>43921</v>
@@ -62199,7 +62202,7 @@
         <v>43769</v>
       </c>
       <c r="D2028" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2028" t="n">
         <v>0.666666666666667</v>
@@ -62219,7 +62222,7 @@
     </row>
     <row r="2029">
       <c r="A2029" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2029" s="1" t="n">
         <v>44286</v>
@@ -62228,7 +62231,7 @@
         <v>44134</v>
       </c>
       <c r="D2029" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2029" t="n">
         <v>0.75</v>
@@ -62248,7 +62251,7 @@
     </row>
     <row r="2030">
       <c r="A2030" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2030" s="1" t="n">
         <v>44651</v>
@@ -62257,7 +62260,7 @@
         <v>44498</v>
       </c>
       <c r="D2030" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2030" t="n">
         <v>0.75</v>
@@ -62277,7 +62280,7 @@
     </row>
     <row r="2031">
       <c r="A2031" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2031" s="1" t="n">
         <v>45016</v>
@@ -62286,7 +62289,7 @@
         <v>44865</v>
       </c>
       <c r="D2031" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2031" t="n">
         <v>0.75</v>
@@ -62306,7 +62309,7 @@
     </row>
     <row r="2032">
       <c r="A2032" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2032" s="1" t="n">
         <v>45382</v>
@@ -62315,7 +62318,7 @@
         <v>45230</v>
       </c>
       <c r="D2032" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2032" t="n">
         <v>0.75</v>
@@ -62335,7 +62338,7 @@
     </row>
     <row r="2033">
       <c r="A2033" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2033" s="1" t="n">
         <v>43830</v>
@@ -62344,7 +62347,7 @@
         <v>43692</v>
       </c>
       <c r="D2033" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2033" t="n">
         <v>0.388888888888889</v>
@@ -62364,7 +62367,7 @@
     </row>
     <row r="2034">
       <c r="A2034" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2034" s="1" t="n">
         <v>44196</v>
@@ -62373,7 +62376,7 @@
         <v>44040</v>
       </c>
       <c r="D2034" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2034" t="n">
         <v>0.444444444444444</v>
@@ -62393,7 +62396,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>44561</v>
@@ -62402,7 +62405,7 @@
         <v>44407</v>
       </c>
       <c r="D2035" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2035" t="n">
         <v>0.388888888888889</v>
@@ -62422,7 +62425,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2036" s="1" t="n">
         <v>44926</v>
@@ -62431,7 +62434,7 @@
         <v>44771</v>
       </c>
       <c r="D2036" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2036" t="n">
         <v>0.388888888888889</v>
@@ -62451,7 +62454,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2037" s="1" t="n">
         <v>45291</v>
@@ -62460,7 +62463,7 @@
         <v>45138</v>
       </c>
       <c r="D2037" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2037" t="n">
         <v>0.388888888888889</v>
@@ -62480,7 +62483,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2038" s="1" t="n">
         <v>45657</v>
@@ -62489,7 +62492,7 @@
         <v>45685</v>
       </c>
       <c r="D2038" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2038" t="n">
         <v>0.388888888888889</v>
@@ -62509,7 +62512,7 @@
     </row>
     <row r="2039">
       <c r="A2039" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2039" s="1" t="n">
         <v>43830</v>
@@ -62518,7 +62521,7 @@
         <v>43677</v>
       </c>
       <c r="D2039" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2039" t="n">
         <v>0.388888888888889</v>
@@ -62538,7 +62541,7 @@
     </row>
     <row r="2040">
       <c r="A2040" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2040" s="1" t="n">
         <v>44196</v>
@@ -62547,7 +62550,7 @@
         <v>44103</v>
       </c>
       <c r="D2040" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2040" t="n">
         <v>0.388888888888889</v>
@@ -62567,7 +62570,7 @@
     </row>
     <row r="2041">
       <c r="A2041" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2041" s="1" t="n">
         <v>44561</v>
@@ -62576,7 +62579,7 @@
         <v>44410</v>
       </c>
       <c r="D2041" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2041" t="n">
         <v>0.388888888888889</v>
@@ -62596,7 +62599,7 @@
     </row>
     <row r="2042">
       <c r="A2042" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2042" s="1" t="n">
         <v>44926</v>
@@ -62605,7 +62608,7 @@
         <v>44771</v>
       </c>
       <c r="D2042" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2042" t="n">
         <v>0.388888888888889</v>
@@ -62625,7 +62628,7 @@
     </row>
     <row r="2043">
       <c r="A2043" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2043" s="1" t="n">
         <v>45291</v>
@@ -62634,7 +62637,7 @@
         <v>45138</v>
       </c>
       <c r="D2043" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E2043" t="n">
         <v>0.388888888888889</v>
@@ -62654,7 +62657,7 @@
     </row>
     <row r="2044">
       <c r="A2044" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2044" s="1" t="n">
         <v>43830</v>
@@ -62663,7 +62666,7 @@
         <v>43662</v>
       </c>
       <c r="D2044" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2044" t="n">
         <v>0.333333333333333</v>
@@ -62683,7 +62686,7 @@
     </row>
     <row r="2045">
       <c r="A2045" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2045" s="1" t="n">
         <v>44196</v>
@@ -62692,7 +62695,7 @@
         <v>44096</v>
       </c>
       <c r="D2045" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2045" t="n">
         <v>0.333333333333333</v>
@@ -62712,7 +62715,7 @@
     </row>
     <row r="2046">
       <c r="A2046" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2046" s="1" t="n">
         <v>44561</v>
@@ -62721,7 +62724,7 @@
         <v>44410</v>
       </c>
       <c r="D2046" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2046" t="n">
         <v>0.333333333333333</v>
@@ -62741,7 +62744,7 @@
     </row>
     <row r="2047">
       <c r="A2047" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2047" s="1" t="n">
         <v>44926</v>
@@ -62750,7 +62753,7 @@
         <v>44771</v>
       </c>
       <c r="D2047" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2047" t="n">
         <v>0.333333333333333</v>
@@ -62770,7 +62773,7 @@
     </row>
     <row r="2048">
       <c r="A2048" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2048" s="1" t="n">
         <v>45291</v>
@@ -62779,7 +62782,7 @@
         <v>45138</v>
       </c>
       <c r="D2048" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2048" t="n">
         <v>0.333333333333333</v>
@@ -62799,7 +62802,7 @@
     </row>
     <row r="2049">
       <c r="A2049" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B2049" s="1" t="n">
         <v>45657</v>
@@ -62808,7 +62811,7 @@
         <v>45504</v>
       </c>
       <c r="D2049" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E2049" t="n">
         <v>0.333333333333333</v>
@@ -62828,7 +62831,7 @@
     </row>
     <row r="2050">
       <c r="A2050" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B2050" s="1" t="n">
         <v>43830</v>
@@ -62837,7 +62840,7 @@
         <v>43677</v>
       </c>
       <c r="D2050" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E2050" t="n">
         <v>0.277777777777778</v>
@@ -62857,7 +62860,7 @@
     </row>
     <row r="2051">
       <c r="A2051" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2051" s="1" t="n">
         <v>44561</v>
@@ -62866,7 +62869,7 @@
         <v>44410</v>
       </c>
       <c r="D2051" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E2051" t="n">
         <v>0.694444444444444</v>
@@ -62886,7 +62889,7 @@
     </row>
     <row r="2052">
       <c r="A2052" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2052" s="1" t="n">
         <v>44926</v>
@@ -62895,7 +62898,7 @@
         <v>44774</v>
       </c>
       <c r="D2052" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E2052" t="n">
         <v>0.694444444444444</v>
@@ -62915,7 +62918,7 @@
     </row>
     <row r="2053">
       <c r="A2053" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2053" s="1" t="n">
         <v>45291</v>
@@ -62924,7 +62927,7 @@
         <v>45138</v>
       </c>
       <c r="D2053" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E2053" t="n">
         <v>0.75</v>
@@ -62944,7 +62947,7 @@
     </row>
     <row r="2054">
       <c r="A2054" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2054" s="1" t="n">
         <v>45657</v>
@@ -62953,7 +62956,7 @@
         <v>45504</v>
       </c>
       <c r="D2054" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E2054" t="n">
         <v>0.75</v>
@@ -62973,7 +62976,7 @@
     </row>
     <row r="2055">
       <c r="A2055" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B2055" s="1" t="n">
         <v>44561</v>
@@ -62982,7 +62985,7 @@
         <v>44407</v>
       </c>
       <c r="D2055" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E2055" t="n">
         <v>0.583333333333333</v>
@@ -63002,7 +63005,7 @@
     </row>
     <row r="2056">
       <c r="A2056" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B2056" s="1" t="n">
         <v>44926</v>
@@ -63011,7 +63014,7 @@
         <v>44771</v>
       </c>
       <c r="D2056" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E2056" t="n">
         <v>0.75</v>
@@ -63031,7 +63034,7 @@
     </row>
     <row r="2057">
       <c r="A2057" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B2057" s="1" t="n">
         <v>45291</v>
@@ -63040,7 +63043,7 @@
         <v>45135</v>
       </c>
       <c r="D2057" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E2057" t="n">
         <v>0.75</v>
@@ -63060,7 +63063,7 @@
     </row>
     <row r="2058">
       <c r="A2058" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B2058" s="1" t="n">
         <v>45657</v>
@@ -63069,7 +63072,7 @@
         <v>45504</v>
       </c>
       <c r="D2058" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E2058" t="n">
         <v>0.611111111111111</v>
@@ -63089,7 +63092,7 @@
     </row>
     <row r="2059">
       <c r="A2059" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2059" s="1" t="n">
         <v>43465</v>
@@ -63098,7 +63101,7 @@
         <v>43404</v>
       </c>
       <c r="D2059" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2059" t="n">
         <v>0.472222222222222</v>
@@ -63118,7 +63121,7 @@
     </row>
     <row r="2060">
       <c r="A2060" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2060" s="1" t="n">
         <v>43830</v>
@@ -63127,7 +63130,7 @@
         <v>43677</v>
       </c>
       <c r="D2060" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2060" t="n">
         <v>0.472222222222222</v>
@@ -63147,7 +63150,7 @@
     </row>
     <row r="2061">
       <c r="A2061" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2061" s="1" t="n">
         <v>44196</v>
@@ -63156,7 +63159,7 @@
         <v>44043</v>
       </c>
       <c r="D2061" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2061" t="n">
         <v>0.472222222222222</v>
@@ -63176,7 +63179,7 @@
     </row>
     <row r="2062">
       <c r="A2062" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2062" s="1" t="n">
         <v>44561</v>
@@ -63185,7 +63188,7 @@
         <v>44396</v>
       </c>
       <c r="D2062" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2062" t="n">
         <v>0.472222222222222</v>
@@ -63205,7 +63208,7 @@
     </row>
     <row r="2063">
       <c r="A2063" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2063" s="1" t="n">
         <v>44926</v>
@@ -63214,7 +63217,7 @@
         <v>44771</v>
       </c>
       <c r="D2063" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2063" t="n">
         <v>0.472222222222222</v>
@@ -63234,7 +63237,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2064" s="1" t="n">
         <v>45291</v>
@@ -63243,7 +63246,7 @@
         <v>45121</v>
       </c>
       <c r="D2064" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2064" t="n">
         <v>0.472222222222222</v>
@@ -63263,7 +63266,7 @@
     </row>
     <row r="2065">
       <c r="A2065" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2065" s="1" t="n">
         <v>45657</v>
@@ -63272,7 +63275,7 @@
         <v>45504</v>
       </c>
       <c r="D2065" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E2065" t="n">
         <v>0.472222222222222</v>
@@ -63292,7 +63295,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2066" s="1" t="n">
         <v>44926</v>
@@ -63301,7 +63304,7 @@
         <v>44769</v>
       </c>
       <c r="D2066" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E2066" t="n">
         <v>0.583333333333333</v>
@@ -63321,7 +63324,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2067" s="1" t="n">
         <v>45291</v>
@@ -63330,7 +63333,7 @@
         <v>45135</v>
       </c>
       <c r="D2067" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E2067" t="n">
         <v>0.583333333333333</v>
@@ -63350,7 +63353,7 @@
     </row>
     <row r="2068">
       <c r="A2068" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2068" s="1" t="n">
         <v>45657</v>
@@ -63359,7 +63362,7 @@
         <v>45504</v>
       </c>
       <c r="D2068" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E2068" t="n">
         <v>0.638888888888889</v>
@@ -63379,7 +63382,7 @@
     </row>
     <row r="2069">
       <c r="A2069" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2069" s="1" t="n">
         <v>43830</v>
@@ -63388,7 +63391,7 @@
         <v>43677</v>
       </c>
       <c r="D2069" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E2069" t="n">
         <v>0.611111111111111</v>
@@ -63408,7 +63411,7 @@
     </row>
     <row r="2070">
       <c r="A2070" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2070" s="1" t="n">
         <v>44196</v>
@@ -63417,7 +63420,7 @@
         <v>44104</v>
       </c>
       <c r="D2070" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E2070" t="n">
         <v>0.638888888888889</v>
@@ -63437,7 +63440,7 @@
     </row>
     <row r="2071">
       <c r="A2071" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2071" s="1" t="n">
         <v>44561</v>
@@ -63446,7 +63449,7 @@
         <v>44396</v>
       </c>
       <c r="D2071" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E2071" t="n">
         <v>0.638888888888889</v>
@@ -63466,7 +63469,7 @@
     </row>
     <row r="2072">
       <c r="A2072" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2072" s="1" t="n">
         <v>43466</v>
@@ -63475,7 +63478,7 @@
         <v>43717</v>
       </c>
       <c r="D2072" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2072" t="n">
         <v>0.527777777777778</v>
@@ -63495,7 +63498,7 @@
     </row>
     <row r="2073">
       <c r="A2073" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2073" s="1" t="n">
         <v>44196</v>
@@ -63504,7 +63507,7 @@
         <v>44099</v>
       </c>
       <c r="D2073" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2073" t="n">
         <v>0.527777777777778</v>
@@ -63524,7 +63527,7 @@
     </row>
     <row r="2074">
       <c r="A2074" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2074" s="1" t="n">
         <v>44561</v>
@@ -63533,7 +63536,7 @@
         <v>44393</v>
       </c>
       <c r="D2074" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2074" t="n">
         <v>0.527777777777778</v>
@@ -63553,7 +63556,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>44926</v>
@@ -63562,7 +63565,7 @@
         <v>44762</v>
       </c>
       <c r="D2075" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2075" t="n">
         <v>0.527777777777778</v>
@@ -63582,7 +63585,7 @@
     </row>
     <row r="2076">
       <c r="A2076" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2076" s="1" t="n">
         <v>45291</v>
@@ -63591,7 +63594,7 @@
         <v>45160</v>
       </c>
       <c r="D2076" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2076" t="n">
         <v>0.527777777777778</v>
@@ -63611,7 +63614,7 @@
     </row>
     <row r="2077">
       <c r="A2077" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2077" s="1" t="n">
         <v>45657</v>
@@ -63620,7 +63623,7 @@
         <v>45502</v>
       </c>
       <c r="D2077" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2077" t="n">
         <v>0.388888888888889</v>
@@ -63640,7 +63643,7 @@
     </row>
     <row r="2078">
       <c r="A2078" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2078" s="1" t="n">
         <v>44196</v>
@@ -63649,7 +63652,7 @@
         <v>44104</v>
       </c>
       <c r="D2078" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E2078" t="n">
         <v>0.527777777777778</v>
@@ -63669,7 +63672,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2079" s="1" t="n">
         <v>44561</v>
@@ -63678,7 +63681,7 @@
         <v>44407</v>
       </c>
       <c r="D2079" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E2079" t="n">
         <v>0.527777777777778</v>
@@ -63698,7 +63701,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2080" s="1" t="n">
         <v>44926</v>
@@ -63707,7 +63710,7 @@
         <v>44771</v>
       </c>
       <c r="D2080" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E2080" t="n">
         <v>0.555555555555556</v>
@@ -63727,7 +63730,7 @@
     </row>
     <row r="2081">
       <c r="A2081" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2081" s="1" t="n">
         <v>45291</v>
@@ -63736,7 +63739,7 @@
         <v>45138</v>
       </c>
       <c r="D2081" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E2081" t="n">
         <v>0.555555555555556</v>
@@ -63756,7 +63759,7 @@
     </row>
     <row r="2082">
       <c r="A2082" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B2082" s="1" t="n">
         <v>45657</v>
@@ -63765,7 +63768,7 @@
         <v>45504</v>
       </c>
       <c r="D2082" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E2082" t="n">
         <v>0.555555555555556</v>
@@ -63785,7 +63788,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2083" s="1" t="n">
         <v>43830</v>
@@ -63794,7 +63797,7 @@
         <v>43675</v>
       </c>
       <c r="D2083" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E2083" t="n">
         <v>0.583333333333333</v>
@@ -63814,7 +63817,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2084" s="1" t="n">
         <v>44196</v>
@@ -63823,7 +63826,7 @@
         <v>44042</v>
       </c>
       <c r="D2084" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E2084" t="n">
         <v>0.583333333333333</v>
@@ -63843,7 +63846,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2085" s="1" t="n">
         <v>44561</v>
@@ -63852,7 +63855,7 @@
         <v>44407</v>
       </c>
       <c r="D2085" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E2085" t="n">
         <v>0.583333333333333</v>
@@ -63872,7 +63875,7 @@
     </row>
     <row r="2086">
       <c r="A2086" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2086" s="1" t="n">
         <v>44926</v>
@@ -63881,7 +63884,7 @@
         <v>44771</v>
       </c>
       <c r="D2086" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E2086" t="n">
         <v>0.694444444444444</v>
@@ -63901,7 +63904,7 @@
     </row>
     <row r="2087">
       <c r="A2087" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2087" s="1" t="n">
         <v>45291</v>
@@ -63910,7 +63913,7 @@
         <v>45138</v>
       </c>
       <c r="D2087" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E2087" t="n">
         <v>0.694444444444444</v>
@@ -63930,7 +63933,7 @@
     </row>
     <row r="2088">
       <c r="A2088" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2088" s="1" t="n">
         <v>43830</v>
@@ -63939,7 +63942,7 @@
         <v>43677</v>
       </c>
       <c r="D2088" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2088" t="n">
         <v>0.694444444444444</v>
@@ -63959,7 +63962,7 @@
     </row>
     <row r="2089">
       <c r="A2089" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2089" s="1" t="n">
         <v>44196</v>
@@ -63968,7 +63971,7 @@
         <v>44043</v>
       </c>
       <c r="D2089" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2089" t="n">
         <v>0.694444444444444</v>
@@ -63988,7 +63991,7 @@
     </row>
     <row r="2090">
       <c r="A2090" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2090" s="1" t="n">
         <v>44561</v>
@@ -63997,7 +64000,7 @@
         <v>44407</v>
       </c>
       <c r="D2090" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2090" t="n">
         <v>0.694444444444444</v>
@@ -64017,7 +64020,7 @@
     </row>
     <row r="2091">
       <c r="A2091" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2091" s="1" t="n">
         <v>44926</v>
@@ -64026,7 +64029,7 @@
         <v>44770</v>
       </c>
       <c r="D2091" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2091" t="n">
         <v>0.694444444444444</v>
@@ -64046,7 +64049,7 @@
     </row>
     <row r="2092">
       <c r="A2092" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2092" s="1" t="n">
         <v>45291</v>
@@ -64055,7 +64058,7 @@
         <v>45107</v>
       </c>
       <c r="D2092" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2092" t="n">
         <v>0.694444444444444</v>
@@ -64075,7 +64078,7 @@
     </row>
     <row r="2093">
       <c r="A2093" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B2093" s="1" t="n">
         <v>45657</v>
@@ -64084,7 +64087,7 @@
         <v>45509</v>
       </c>
       <c r="D2093" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2093" t="n">
         <v>0.694444444444444</v>
@@ -64104,7 +64107,7 @@
     </row>
     <row r="2094">
       <c r="A2094" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2094" s="1" t="n">
         <v>43830</v>
@@ -64113,7 +64116,7 @@
         <v>43677</v>
       </c>
       <c r="D2094" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2094" t="n">
         <v>0.305555555555556</v>
@@ -64133,7 +64136,7 @@
     </row>
     <row r="2095">
       <c r="A2095" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2095" s="1" t="n">
         <v>44196</v>
@@ -64142,7 +64145,7 @@
         <v>44103</v>
       </c>
       <c r="D2095" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2095" t="n">
         <v>0.305555555555556</v>
@@ -64162,7 +64165,7 @@
     </row>
     <row r="2096">
       <c r="A2096" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2096" s="1" t="n">
         <v>44561</v>
@@ -64171,7 +64174,7 @@
         <v>44405</v>
       </c>
       <c r="D2096" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2096" t="n">
         <v>0.444444444444444</v>
@@ -64191,7 +64194,7 @@
     </row>
     <row r="2097">
       <c r="A2097" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2097" s="1" t="n">
         <v>44926</v>
@@ -64200,7 +64203,7 @@
         <v>44771</v>
       </c>
       <c r="D2097" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2097" t="n">
         <v>0.444444444444444</v>
@@ -64220,7 +64223,7 @@
     </row>
     <row r="2098">
       <c r="A2098" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2098" s="1" t="n">
         <v>45291</v>
@@ -64229,7 +64232,7 @@
         <v>45138</v>
       </c>
       <c r="D2098" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2098" t="n">
         <v>0.527777777777778</v>
@@ -64249,7 +64252,7 @@
     </row>
     <row r="2099">
       <c r="A2099" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2099" s="1" t="n">
         <v>45657</v>
@@ -64258,7 +64261,7 @@
         <v>45504</v>
       </c>
       <c r="D2099" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E2099" t="n">
         <v>0.444444444444444</v>
@@ -64278,7 +64281,7 @@
     </row>
     <row r="2100">
       <c r="A2100" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B2100" s="1" t="n">
         <v>43465</v>
@@ -64287,7 +64290,7 @@
         <v>43399</v>
       </c>
       <c r="D2100" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E2100" t="n">
         <v>0.361111111111111</v>
@@ -64307,7 +64310,7 @@
     </row>
     <row r="2101">
       <c r="A2101" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B2101" s="1" t="n">
         <v>43830</v>
@@ -64316,7 +64319,7 @@
         <v>43676</v>
       </c>
       <c r="D2101" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E2101" t="n">
         <v>0.361111111111111</v>
@@ -64336,7 +64339,7 @@
     </row>
     <row r="2102">
       <c r="A2102" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B2102" s="1" t="n">
         <v>44196</v>
@@ -64345,7 +64348,7 @@
         <v>44104</v>
       </c>
       <c r="D2102" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E2102" t="n">
         <v>0.361111111111111</v>
@@ -64365,7 +64368,7 @@
     </row>
     <row r="2103">
       <c r="A2103" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2103" s="1" t="n">
         <v>43830</v>
@@ -64374,7 +64377,7 @@
         <v>43668</v>
       </c>
       <c r="D2103" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E2103" t="n">
         <v>0.611111111111111</v>
@@ -64394,7 +64397,7 @@
     </row>
     <row r="2104">
       <c r="A2104" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2104" s="1" t="n">
         <v>44196</v>
@@ -64403,7 +64406,7 @@
         <v>44075</v>
       </c>
       <c r="D2104" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E2104" t="n">
         <v>0.611111111111111</v>
@@ -64423,7 +64426,7 @@
     </row>
     <row r="2105">
       <c r="A2105" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2105" s="1" t="n">
         <v>44561</v>
@@ -64432,7 +64435,7 @@
         <v>44389</v>
       </c>
       <c r="D2105" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E2105" t="n">
         <v>0.638888888888889</v>
@@ -64452,7 +64455,7 @@
     </row>
     <row r="2106">
       <c r="A2106" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2106" s="1" t="n">
         <v>44926</v>
@@ -64461,7 +64464,7 @@
         <v>44740</v>
       </c>
       <c r="D2106" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E2106" t="n">
         <v>0.666666666666667</v>
@@ -64481,7 +64484,7 @@
     </row>
     <row r="2107">
       <c r="A2107" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2107" s="1" t="n">
         <v>45291</v>
@@ -64490,7 +64493,7 @@
         <v>45097</v>
       </c>
       <c r="D2107" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E2107" t="n">
         <v>0.666666666666667</v>
@@ -64510,7 +64513,7 @@
     </row>
     <row r="2108">
       <c r="A2108" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B2108" s="1" t="n">
         <v>45291</v>
@@ -64519,7 +64522,7 @@
         <v>45138</v>
       </c>
       <c r="D2108" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E2108" t="n">
         <v>0.416666666666667</v>
@@ -64539,7 +64542,7 @@
     </row>
     <row r="2109">
       <c r="A2109" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B2109" s="1" t="n">
         <v>45657</v>
@@ -64548,7 +64551,7 @@
         <v>45504</v>
       </c>
       <c r="D2109" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E2109" t="n">
         <v>0.444444444444444</v>
@@ -64568,7 +64571,7 @@
     </row>
     <row r="2110">
       <c r="A2110" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2110" s="1" t="n">
         <v>43830</v>
@@ -64577,7 +64580,7 @@
         <v>43677</v>
       </c>
       <c r="D2110" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2110" t="n">
         <v>0.25</v>
@@ -64597,7 +64600,7 @@
     </row>
     <row r="2111">
       <c r="A2111" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2111" s="1" t="n">
         <v>44196</v>
@@ -64606,7 +64609,7 @@
         <v>44104</v>
       </c>
       <c r="D2111" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2111" t="n">
         <v>0.25</v>
@@ -64626,7 +64629,7 @@
     </row>
     <row r="2112">
       <c r="A2112" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2112" s="1" t="n">
         <v>44561</v>
@@ -64635,7 +64638,7 @@
         <v>44403</v>
       </c>
       <c r="D2112" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2112" t="n">
         <v>0.25</v>
@@ -64655,7 +64658,7 @@
     </row>
     <row r="2113">
       <c r="A2113" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2113" s="1" t="n">
         <v>44926</v>
@@ -64664,7 +64667,7 @@
         <v>44771</v>
       </c>
       <c r="D2113" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2113" t="n">
         <v>0.25</v>
@@ -64684,7 +64687,7 @@
     </row>
     <row r="2114">
       <c r="A2114" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2114" s="1" t="n">
         <v>45291</v>
@@ -64693,7 +64696,7 @@
         <v>45138</v>
       </c>
       <c r="D2114" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2114" t="n">
         <v>0.277777777777778</v>
@@ -64713,7 +64716,7 @@
     </row>
     <row r="2115">
       <c r="A2115" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2115" s="1" t="n">
         <v>45657</v>
@@ -64722,7 +64725,7 @@
         <v>45498</v>
       </c>
       <c r="D2115" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2115" t="n">
         <v>0.277777777777778</v>
@@ -64742,7 +64745,7 @@
     </row>
     <row r="2116">
       <c r="A2116" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B2116" s="1" t="n">
         <v>43830</v>
@@ -64751,7 +64754,7 @@
         <v>43679</v>
       </c>
       <c r="D2116" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E2116" t="n">
         <v>0.444444444444444</v>
@@ -64771,7 +64774,7 @@
     </row>
     <row r="2117">
       <c r="A2117" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2117" s="1" t="n">
         <v>43830</v>
@@ -64780,7 +64783,7 @@
         <v>43676</v>
       </c>
       <c r="D2117" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2117" t="n">
         <v>0.694444444444444</v>
@@ -64800,7 +64803,7 @@
     </row>
     <row r="2118">
       <c r="A2118" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2118" s="1" t="n">
         <v>44196</v>
@@ -64809,7 +64812,7 @@
         <v>44061</v>
       </c>
       <c r="D2118" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2118" t="n">
         <v>0.694444444444444</v>
@@ -64829,7 +64832,7 @@
     </row>
     <row r="2119">
       <c r="A2119" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2119" s="1" t="n">
         <v>44561</v>
@@ -64838,7 +64841,7 @@
         <v>44391</v>
       </c>
       <c r="D2119" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2119" t="n">
         <v>0.694444444444444</v>
@@ -64858,7 +64861,7 @@
     </row>
     <row r="2120">
       <c r="A2120" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2120" s="1" t="n">
         <v>44926</v>
@@ -64867,7 +64870,7 @@
         <v>44755</v>
       </c>
       <c r="D2120" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2120" t="n">
         <v>0.694444444444444</v>
@@ -64887,7 +64890,7 @@
     </row>
     <row r="2121">
       <c r="A2121" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2121" s="1" t="n">
         <v>45291</v>
@@ -64896,7 +64899,7 @@
         <v>45138</v>
       </c>
       <c r="D2121" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2121" t="n">
         <v>0.694444444444444</v>
@@ -64916,7 +64919,7 @@
     </row>
     <row r="2122">
       <c r="A2122" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2122" s="1" t="n">
         <v>45657</v>
@@ -64925,7 +64928,7 @@
         <v>45489</v>
       </c>
       <c r="D2122" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E2122" t="n">
         <v>0.694444444444444</v>
@@ -64945,7 +64948,7 @@
     </row>
     <row r="2123">
       <c r="A2123" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B2123" s="1" t="n">
         <v>43830</v>
@@ -64954,7 +64957,7 @@
         <v>43672</v>
       </c>
       <c r="D2123" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E2123" t="n">
         <v>0.666666666666667</v>
@@ -64974,7 +64977,7 @@
     </row>
     <row r="2124">
       <c r="A2124" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B2124" s="1" t="n">
         <v>44196</v>
@@ -64983,7 +64986,7 @@
         <v>44039</v>
       </c>
       <c r="D2124" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E2124" t="n">
         <v>0.666666666666667</v>
@@ -65003,7 +65006,7 @@
     </row>
     <row r="2125">
       <c r="A2125" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B2125" s="1" t="n">
         <v>44561</v>
@@ -65012,7 +65015,7 @@
         <v>44405</v>
       </c>
       <c r="D2125" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E2125" t="n">
         <v>0.666666666666667</v>
@@ -65032,7 +65035,7 @@
     </row>
     <row r="2126">
       <c r="A2126" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B2126" s="1" t="n">
         <v>43830</v>
@@ -65041,7 +65044,7 @@
         <v>43684</v>
       </c>
       <c r="D2126" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E2126" t="n">
         <v>0.527777777777778</v>
@@ -65061,7 +65064,7 @@
     </row>
     <row r="2127">
       <c r="A2127" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B2127" s="1" t="n">
         <v>44196</v>
@@ -65070,7 +65073,7 @@
         <v>44089</v>
       </c>
       <c r="D2127" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E2127" t="n">
         <v>0.527777777777778</v>
@@ -65090,7 +65093,7 @@
     </row>
     <row r="2128">
       <c r="A2128" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B2128" s="1" t="n">
         <v>44561</v>
@@ -65099,7 +65102,7 @@
         <v>44404</v>
       </c>
       <c r="D2128" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E2128" t="n">
         <v>0.527777777777778</v>
@@ -65119,7 +65122,7 @@
     </row>
     <row r="2129">
       <c r="A2129" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B2129" s="1" t="n">
         <v>44926</v>
@@ -65128,7 +65131,7 @@
         <v>44771</v>
       </c>
       <c r="D2129" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E2129" t="n">
         <v>0.527777777777778</v>
@@ -65148,7 +65151,7 @@
     </row>
     <row r="2130">
       <c r="A2130" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B2130" s="1" t="n">
         <v>45291</v>
@@ -65157,7 +65160,7 @@
         <v>45146</v>
       </c>
       <c r="D2130" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E2130" t="n">
         <v>0.527777777777778</v>
@@ -65177,7 +65180,7 @@
     </row>
     <row r="2131">
       <c r="A2131" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2131" s="1" t="n">
         <v>43830</v>
@@ -65186,7 +65189,7 @@
         <v>43676</v>
       </c>
       <c r="D2131" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2131" t="n">
         <v>0.388888888888889</v>
@@ -65206,7 +65209,7 @@
     </row>
     <row r="2132">
       <c r="A2132" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2132" s="1" t="n">
         <v>44196</v>
@@ -65215,7 +65218,7 @@
         <v>44090</v>
       </c>
       <c r="D2132" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2132" t="n">
         <v>0.388888888888889</v>
@@ -65235,7 +65238,7 @@
     </row>
     <row r="2133">
       <c r="A2133" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2133" s="1" t="n">
         <v>44561</v>
@@ -65244,7 +65247,7 @@
         <v>44404</v>
       </c>
       <c r="D2133" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2133" t="n">
         <v>0.361111111111111</v>
@@ -65264,7 +65267,7 @@
     </row>
     <row r="2134">
       <c r="A2134" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2134" s="1" t="n">
         <v>44926</v>
@@ -65273,7 +65276,7 @@
         <v>44769</v>
       </c>
       <c r="D2134" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2134" t="n">
         <v>0.361111111111111</v>
@@ -65293,7 +65296,7 @@
     </row>
     <row r="2135">
       <c r="A2135" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B2135" s="1" t="n">
         <v>43465</v>
@@ -65302,7 +65305,7 @@
         <v>43403</v>
       </c>
       <c r="D2135" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E2135" t="n">
         <v>0.694444444444444</v>
@@ -65322,7 +65325,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>43830</v>
@@ -65331,7 +65334,7 @@
         <v>43677</v>
       </c>
       <c r="D2136" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E2136" t="n">
         <v>0.694444444444444</v>
@@ -65351,7 +65354,7 @@
     </row>
     <row r="2137">
       <c r="A2137" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B2137" s="1" t="n">
         <v>44196</v>
@@ -65360,7 +65363,7 @@
         <v>44042</v>
       </c>
       <c r="D2137" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E2137" t="n">
         <v>0.694444444444444</v>
@@ -65380,7 +65383,7 @@
     </row>
     <row r="2138">
       <c r="A2138" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B2138" s="1" t="n">
         <v>44561</v>
@@ -65389,7 +65392,7 @@
         <v>44407</v>
       </c>
       <c r="D2138" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E2138" t="n">
         <v>0.75</v>
@@ -65409,7 +65412,7 @@
     </row>
     <row r="2139">
       <c r="A2139" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B2139" s="1" t="n">
         <v>44926</v>
@@ -65418,7 +65421,7 @@
         <v>44771</v>
       </c>
       <c r="D2139" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E2139" t="n">
         <v>0.75</v>
@@ -65438,7 +65441,7 @@
     </row>
     <row r="2140">
       <c r="A2140" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2140" s="1" t="n">
         <v>43830</v>
@@ -65447,7 +65450,7 @@
         <v>43668</v>
       </c>
       <c r="D2140" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2140" t="n">
         <v>0.333333333333333</v>
@@ -65467,7 +65470,7 @@
     </row>
     <row r="2141">
       <c r="A2141" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2141" s="1" t="n">
         <v>44196</v>
@@ -65476,7 +65479,7 @@
         <v>44069</v>
       </c>
       <c r="D2141" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2141" t="n">
         <v>0.333333333333333</v>
@@ -65496,7 +65499,7 @@
     </row>
     <row r="2142">
       <c r="A2142" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2142" s="1" t="n">
         <v>44561</v>
@@ -65505,7 +65508,7 @@
         <v>44389</v>
       </c>
       <c r="D2142" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2142" t="n">
         <v>0.333333333333333</v>
@@ -65525,7 +65528,7 @@
     </row>
     <row r="2143">
       <c r="A2143" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2143" s="1" t="n">
         <v>44926</v>
@@ -65534,7 +65537,7 @@
         <v>44749</v>
       </c>
       <c r="D2143" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2143" t="n">
         <v>0.333333333333333</v>
@@ -65554,7 +65557,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45291</v>
@@ -65563,7 +65566,7 @@
         <v>45124</v>
       </c>
       <c r="D2144" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2144" t="n">
         <v>0.333333333333333</v>
@@ -65583,7 +65586,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2145" s="1" t="n">
         <v>45657</v>
@@ -65592,7 +65595,7 @@
         <v>45475</v>
       </c>
       <c r="D2145" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E2145" t="n">
         <v>0.333333333333333</v>
@@ -65612,7 +65615,7 @@
     </row>
     <row r="2146">
       <c r="A2146" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2146" s="1" t="n">
         <v>43465</v>
@@ -65621,7 +65624,7 @@
         <v>43404</v>
       </c>
       <c r="D2146" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2146" t="n">
         <v>0.777777777777778</v>
@@ -65641,7 +65644,7 @@
     </row>
     <row r="2147">
       <c r="A2147" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2147" s="1" t="n">
         <v>43830</v>
@@ -65650,7 +65653,7 @@
         <v>43677</v>
       </c>
       <c r="D2147" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2147" t="n">
         <v>0.777777777777778</v>
@@ -65670,7 +65673,7 @@
     </row>
     <row r="2148">
       <c r="A2148" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2148" s="1" t="n">
         <v>44196</v>
@@ -65679,7 +65682,7 @@
         <v>44043</v>
       </c>
       <c r="D2148" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2148" t="n">
         <v>0.805555555555556</v>
@@ -65699,7 +65702,7 @@
     </row>
     <row r="2149">
       <c r="A2149" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2149" s="1" t="n">
         <v>44561</v>
@@ -65708,7 +65711,7 @@
         <v>44410</v>
       </c>
       <c r="D2149" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2149" t="n">
         <v>0.777777777777778</v>
@@ -65728,7 +65731,7 @@
     </row>
     <row r="2150">
       <c r="A2150" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2150" s="1" t="n">
         <v>44926</v>
@@ -65737,7 +65740,7 @@
         <v>44771</v>
       </c>
       <c r="D2150" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2150" t="n">
         <v>0.777777777777778</v>
@@ -65757,7 +65760,7 @@
     </row>
     <row r="2151">
       <c r="A2151" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2151" s="1" t="n">
         <v>45291</v>
@@ -65766,7 +65769,7 @@
         <v>45135</v>
       </c>
       <c r="D2151" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2151" t="n">
         <v>0.777777777777778</v>
@@ -65786,7 +65789,7 @@
     </row>
     <row r="2152">
       <c r="A2152" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2152" s="1" t="n">
         <v>45657</v>
@@ -65795,7 +65798,7 @@
         <v>45503</v>
       </c>
       <c r="D2152" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2152" t="n">
         <v>0.777777777777778</v>
@@ -65815,7 +65818,7 @@
     </row>
     <row r="2153">
       <c r="A2153" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2153" s="1" t="n">
         <v>43830</v>
@@ -65824,7 +65827,7 @@
         <v>43672</v>
       </c>
       <c r="D2153" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2153" t="n">
         <v>0.527777777777778</v>
@@ -65844,7 +65847,7 @@
     </row>
     <row r="2154">
       <c r="A2154" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2154" s="1" t="n">
         <v>44196</v>
@@ -65853,7 +65856,7 @@
         <v>44099</v>
       </c>
       <c r="D2154" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2154" t="n">
         <v>0.583333333333333</v>
@@ -65873,7 +65876,7 @@
     </row>
     <row r="2155">
       <c r="A2155" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2155" s="1" t="n">
         <v>44561</v>
@@ -65882,7 +65885,7 @@
         <v>44405</v>
       </c>
       <c r="D2155" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2155" t="n">
         <v>0.583333333333333</v>
@@ -65902,7 +65905,7 @@
     </row>
     <row r="2156">
       <c r="A2156" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2156" s="1" t="n">
         <v>44926</v>
@@ -65911,7 +65914,7 @@
         <v>44771</v>
       </c>
       <c r="D2156" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2156" t="n">
         <v>0.583333333333333</v>
@@ -65931,7 +65934,7 @@
     </row>
     <row r="2157">
       <c r="A2157" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2157" s="1" t="n">
         <v>45291</v>
@@ -65940,7 +65943,7 @@
         <v>45133</v>
       </c>
       <c r="D2157" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2157" t="n">
         <v>0.611111111111111</v>
@@ -65960,7 +65963,7 @@
     </row>
     <row r="2158">
       <c r="A2158" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B2158" s="1" t="n">
         <v>45657</v>
@@ -65969,7 +65972,7 @@
         <v>45481</v>
       </c>
       <c r="D2158" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2158" t="n">
         <v>0.611111111111111</v>
@@ -65989,7 +65992,7 @@
     </row>
     <row r="2159">
       <c r="A2159" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2159" s="1" t="n">
         <v>43830</v>
@@ -65998,7 +66001,7 @@
         <v>43676</v>
       </c>
       <c r="D2159" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2159" t="n">
         <v>0.583333333333333</v>
@@ -66018,7 +66021,7 @@
     </row>
     <row r="2160">
       <c r="A2160" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2160" s="1" t="n">
         <v>44196</v>
@@ -66027,7 +66030,7 @@
         <v>44098</v>
       </c>
       <c r="D2160" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2160" t="n">
         <v>0.527777777777778</v>
@@ -66047,7 +66050,7 @@
     </row>
     <row r="2161">
       <c r="A2161" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2161" s="1" t="n">
         <v>44561</v>
@@ -66056,7 +66059,7 @@
         <v>44407</v>
       </c>
       <c r="D2161" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2161" t="n">
         <v>0.722222222222222</v>
@@ -66076,7 +66079,7 @@
     </row>
     <row r="2162">
       <c r="A2162" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2162" s="1" t="n">
         <v>44926</v>
@@ -66085,7 +66088,7 @@
         <v>44774</v>
       </c>
       <c r="D2162" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2162" t="n">
         <v>0.722222222222222</v>
@@ -66105,7 +66108,7 @@
     </row>
     <row r="2163">
       <c r="A2163" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2163" s="1" t="n">
         <v>45291</v>
@@ -66114,7 +66117,7 @@
         <v>45138</v>
       </c>
       <c r="D2163" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2163" t="n">
         <v>0.722222222222222</v>
@@ -66134,7 +66137,7 @@
     </row>
     <row r="2164">
       <c r="A2164" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B2164" s="1" t="n">
         <v>45657</v>
@@ -66143,7 +66146,7 @@
         <v>45504</v>
       </c>
       <c r="D2164" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E2164" t="n">
         <v>0.722222222222222</v>
@@ -66163,7 +66166,7 @@
     </row>
     <row r="2165">
       <c r="A2165" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2165" s="1" t="n">
         <v>43830</v>
@@ -66172,7 +66175,7 @@
         <v>43676</v>
       </c>
       <c r="D2165" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2165" t="n">
         <v>0.361111111111111</v>
@@ -66192,7 +66195,7 @@
     </row>
     <row r="2166">
       <c r="A2166" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2166" s="1" t="n">
         <v>44196</v>
@@ -66201,7 +66204,7 @@
         <v>44104</v>
       </c>
       <c r="D2166" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2166" t="n">
         <v>0.388888888888889</v>
@@ -66221,7 +66224,7 @@
     </row>
     <row r="2167">
       <c r="A2167" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2167" s="1" t="n">
         <v>44561</v>
@@ -66230,7 +66233,7 @@
         <v>44407</v>
       </c>
       <c r="D2167" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2167" t="n">
         <v>0.416666666666667</v>
@@ -66250,7 +66253,7 @@
     </row>
     <row r="2168">
       <c r="A2168" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2168" s="1" t="n">
         <v>44926</v>
@@ -66259,7 +66262,7 @@
         <v>44771</v>
       </c>
       <c r="D2168" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2168" t="n">
         <v>0.416666666666667</v>
@@ -66279,7 +66282,7 @@
     </row>
     <row r="2169">
       <c r="A2169" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2169" s="1" t="n">
         <v>45291</v>
@@ -66288,7 +66291,7 @@
         <v>45138</v>
       </c>
       <c r="D2169" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2169" t="n">
         <v>0.416666666666667</v>
@@ -66308,7 +66311,7 @@
     </row>
     <row r="2170">
       <c r="A2170" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2170" s="1" t="n">
         <v>45657</v>
@@ -66317,7 +66320,7 @@
         <v>45504</v>
       </c>
       <c r="D2170" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2170" t="n">
         <v>0.416666666666667</v>
@@ -66337,7 +66340,7 @@
     </row>
     <row r="2171">
       <c r="A2171" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2171" s="1" t="n">
         <v>44561</v>
@@ -66346,7 +66349,7 @@
         <v>44407</v>
       </c>
       <c r="D2171" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2171" t="n">
         <v>0.75</v>
@@ -66366,7 +66369,7 @@
     </row>
     <row r="2172">
       <c r="A2172" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2172" s="1" t="n">
         <v>44926</v>
@@ -66375,7 +66378,7 @@
         <v>44771</v>
       </c>
       <c r="D2172" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2172" t="n">
         <v>0.805555555555556</v>
@@ -66395,7 +66398,7 @@
     </row>
     <row r="2173">
       <c r="A2173" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2173" s="1" t="n">
         <v>45291</v>
@@ -66404,7 +66407,7 @@
         <v>45135</v>
       </c>
       <c r="D2173" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2173" t="n">
         <v>0.805555555555556</v>
@@ -66424,7 +66427,7 @@
     </row>
     <row r="2174">
       <c r="A2174" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2174" s="1" t="n">
         <v>45657</v>
@@ -66433,7 +66436,7 @@
         <v>45504</v>
       </c>
       <c r="D2174" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2174" t="n">
         <v>0.805555555555556</v>
@@ -66453,7 +66456,7 @@
     </row>
     <row r="2175">
       <c r="A2175" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2175" s="1" t="n">
         <v>43465</v>
@@ -66462,7 +66465,7 @@
         <v>43402</v>
       </c>
       <c r="D2175" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2175" t="n">
         <v>0.333333333333333</v>
@@ -66482,7 +66485,7 @@
     </row>
     <row r="2176">
       <c r="A2176" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2176" s="1" t="n">
         <v>43830</v>
@@ -66491,7 +66494,7 @@
         <v>43649</v>
       </c>
       <c r="D2176" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2176" t="n">
         <v>0.333333333333333</v>
@@ -66511,7 +66514,7 @@
     </row>
     <row r="2177">
       <c r="A2177" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2177" s="1" t="n">
         <v>44196</v>
@@ -66520,7 +66523,7 @@
         <v>44107</v>
       </c>
       <c r="D2177" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2177" t="n">
         <v>0.444444444444444</v>
@@ -66540,7 +66543,7 @@
     </row>
     <row r="2178">
       <c r="A2178" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2178" s="1" t="n">
         <v>44561</v>
@@ -66549,7 +66552,7 @@
         <v>44390</v>
       </c>
       <c r="D2178" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2178" t="n">
         <v>0.333333333333333</v>
@@ -66569,7 +66572,7 @@
     </row>
     <row r="2179">
       <c r="A2179" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2179" s="1" t="n">
         <v>44926</v>
@@ -66578,7 +66581,7 @@
         <v>44763</v>
       </c>
       <c r="D2179" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2179" t="n">
         <v>0.388888888888889</v>
@@ -66598,7 +66601,7 @@
     </row>
     <row r="2180">
       <c r="A2180" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2180" s="1" t="n">
         <v>45291</v>
@@ -66607,7 +66610,7 @@
         <v>45118</v>
       </c>
       <c r="D2180" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2180" t="n">
         <v>0.416666666666667</v>
@@ -66627,7 +66630,7 @@
     </row>
     <row r="2181">
       <c r="A2181" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2181" s="1" t="n">
         <v>45657</v>
@@ -66636,7 +66639,7 @@
         <v>45481</v>
       </c>
       <c r="D2181" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2181" t="n">
         <v>0.388888888888889</v>
@@ -66656,7 +66659,7 @@
     </row>
     <row r="2182">
       <c r="A2182" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2182" s="1" t="n">
         <v>43830</v>
@@ -66665,7 +66668,7 @@
         <v>43677</v>
       </c>
       <c r="D2182" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2182" t="n">
         <v>0.527777777777778</v>
@@ -66685,7 +66688,7 @@
     </row>
     <row r="2183">
       <c r="A2183" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2183" s="1" t="n">
         <v>44196</v>
@@ -66694,7 +66697,7 @@
         <v>44104</v>
       </c>
       <c r="D2183" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2183" t="n">
         <v>0.527777777777778</v>
@@ -66714,7 +66717,7 @@
     </row>
     <row r="2184">
       <c r="A2184" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2184" s="1" t="n">
         <v>44561</v>
@@ -66723,7 +66726,7 @@
         <v>44410</v>
       </c>
       <c r="D2184" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2184" t="n">
         <v>0.527777777777778</v>
@@ -66743,7 +66746,7 @@
     </row>
     <row r="2185">
       <c r="A2185" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2185" s="1" t="n">
         <v>44926</v>
@@ -66752,7 +66755,7 @@
         <v>44771</v>
       </c>
       <c r="D2185" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2185" t="n">
         <v>0.777777777777778</v>
@@ -66772,7 +66775,7 @@
     </row>
     <row r="2186">
       <c r="A2186" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2186" s="1" t="n">
         <v>45291</v>
@@ -66781,7 +66784,7 @@
         <v>45138</v>
       </c>
       <c r="D2186" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2186" t="n">
         <v>0.694444444444444</v>
@@ -66801,7 +66804,7 @@
     </row>
     <row r="2187">
       <c r="A2187" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2187" s="1" t="n">
         <v>45657</v>
@@ -66810,7 +66813,7 @@
         <v>45504</v>
       </c>
       <c r="D2187" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2187" t="n">
         <v>0.638888888888889</v>
@@ -66830,7 +66833,7 @@
     </row>
     <row r="2188">
       <c r="A2188" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2188" s="1" t="n">
         <v>43830</v>
@@ -66839,7 +66842,7 @@
         <v>43677</v>
       </c>
       <c r="D2188" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2188" t="n">
         <v>0.472222222222222</v>
@@ -66859,7 +66862,7 @@
     </row>
     <row r="2189">
       <c r="A2189" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2189" s="1" t="n">
         <v>44196</v>
@@ -66868,7 +66871,7 @@
         <v>44005</v>
       </c>
       <c r="D2189" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2189" t="n">
         <v>0.472222222222222</v>
@@ -66888,7 +66891,7 @@
     </row>
     <row r="2190">
       <c r="A2190" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2190" s="1" t="n">
         <v>44561</v>
@@ -66897,7 +66900,7 @@
         <v>44407</v>
       </c>
       <c r="D2190" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2190" t="n">
         <v>0.5</v>
@@ -66917,7 +66920,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2191" s="1" t="n">
         <v>44926</v>
@@ -66926,7 +66929,7 @@
         <v>44771</v>
       </c>
       <c r="D2191" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2191" t="n">
         <v>0.5</v>
@@ -66946,7 +66949,7 @@
     </row>
     <row r="2192">
       <c r="A2192" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2192" s="1" t="n">
         <v>45291</v>
@@ -66955,7 +66958,7 @@
         <v>45138</v>
       </c>
       <c r="D2192" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2192" t="n">
         <v>0.583333333333333</v>
@@ -66975,7 +66978,7 @@
     </row>
     <row r="2193">
       <c r="A2193" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2193" s="1" t="n">
         <v>45657</v>
@@ -66984,7 +66987,7 @@
         <v>45504</v>
       </c>
       <c r="D2193" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2193" t="n">
         <v>0.583333333333333</v>
@@ -67004,7 +67007,7 @@
     </row>
     <row r="2194">
       <c r="A2194" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B2194" s="1" t="n">
         <v>43830</v>
@@ -67013,7 +67016,7 @@
         <v>43746</v>
       </c>
       <c r="D2194" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2194" t="n">
         <v>0.416666666666667</v>
@@ -67033,7 +67036,7 @@
     </row>
     <row r="2195">
       <c r="A2195" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B2195" s="1" t="n">
         <v>44196</v>
@@ -67042,7 +67045,7 @@
         <v>44096</v>
       </c>
       <c r="D2195" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2195" t="n">
         <v>0.416666666666667</v>
@@ -67062,7 +67065,7 @@
     </row>
     <row r="2196">
       <c r="A2196" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B2196" s="1" t="n">
         <v>44561</v>
@@ -67071,7 +67074,7 @@
         <v>44405</v>
       </c>
       <c r="D2196" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2196" t="n">
         <v>0.416666666666667</v>
@@ -67091,7 +67094,7 @@
     </row>
     <row r="2197">
       <c r="A2197" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B2197" s="1" t="n">
         <v>44926</v>
@@ -67100,7 +67103,7 @@
         <v>44774</v>
       </c>
       <c r="D2197" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2197" t="n">
         <v>0.416666666666667</v>
@@ -67120,7 +67123,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2198" s="1" t="n">
         <v>43830</v>
@@ -67129,7 +67132,7 @@
         <v>43675</v>
       </c>
       <c r="D2198" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E2198" t="n">
         <v>0.444444444444444</v>
@@ -67149,7 +67152,7 @@
     </row>
     <row r="2199">
       <c r="A2199" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2199" s="1" t="n">
         <v>44196</v>
@@ -67158,7 +67161,7 @@
         <v>44041</v>
       </c>
       <c r="D2199" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E2199" t="n">
         <v>0.444444444444444</v>
@@ -67178,7 +67181,7 @@
     </row>
     <row r="2200">
       <c r="A2200" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2200" s="1" t="n">
         <v>44561</v>
@@ -67187,7 +67190,7 @@
         <v>44405</v>
       </c>
       <c r="D2200" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E2200" t="n">
         <v>0.444444444444444</v>
@@ -67207,7 +67210,7 @@
     </row>
     <row r="2201">
       <c r="A2201" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2201" s="1" t="n">
         <v>44926</v>
@@ -67216,7 +67219,7 @@
         <v>44774</v>
       </c>
       <c r="D2201" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E2201" t="n">
         <v>0.555555555555556</v>
@@ -67236,7 +67239,7 @@
     </row>
     <row r="2202">
       <c r="A2202" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B2202" s="1" t="n">
         <v>45291</v>
@@ -67245,7 +67248,7 @@
         <v>45138</v>
       </c>
       <c r="D2202" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E2202" t="n">
         <v>0.583333333333333</v>
@@ -67265,7 +67268,7 @@
     </row>
     <row r="2203">
       <c r="A2203" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B2203" s="1" t="n">
         <v>44561</v>
@@ -67274,7 +67277,7 @@
         <v>44407</v>
       </c>
       <c r="D2203" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2203" t="n">
         <v>0.361111111111111</v>
@@ -67294,7 +67297,7 @@
     </row>
     <row r="2204">
       <c r="A2204" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B2204" s="1" t="n">
         <v>44926</v>
@@ -67303,7 +67306,7 @@
         <v>44774</v>
       </c>
       <c r="D2204" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2204" t="n">
         <v>0.361111111111111</v>
@@ -67323,7 +67326,7 @@
     </row>
     <row r="2205">
       <c r="A2205" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B2205" s="1" t="n">
         <v>45291</v>
@@ -67332,7 +67335,7 @@
         <v>45138</v>
       </c>
       <c r="D2205" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2205" t="n">
         <v>0.361111111111111</v>
@@ -67352,7 +67355,7 @@
     </row>
     <row r="2206">
       <c r="A2206" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2206" s="1" t="n">
         <v>43830</v>
@@ -67361,7 +67364,7 @@
         <v>43774</v>
       </c>
       <c r="D2206" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2206" t="n">
         <v>0.25</v>
@@ -67381,7 +67384,7 @@
     </row>
     <row r="2207">
       <c r="A2207" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2207" s="1" t="n">
         <v>44196</v>
@@ -67390,7 +67393,7 @@
         <v>44092</v>
       </c>
       <c r="D2207" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2207" t="n">
         <v>0.25</v>
@@ -67410,7 +67413,7 @@
     </row>
     <row r="2208">
       <c r="A2208" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2208" s="1" t="n">
         <v>44561</v>
@@ -67419,7 +67422,7 @@
         <v>44410</v>
       </c>
       <c r="D2208" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2208" t="n">
         <v>0.25</v>
@@ -67439,7 +67442,7 @@
     </row>
     <row r="2209">
       <c r="A2209" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2209" s="1" t="n">
         <v>44926</v>
@@ -67448,7 +67451,7 @@
         <v>44771</v>
       </c>
       <c r="D2209" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2209" t="n">
         <v>0.25</v>
@@ -67468,7 +67471,7 @@
     </row>
     <row r="2210">
       <c r="A2210" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2210" s="1" t="n">
         <v>45291</v>
@@ -67477,7 +67480,7 @@
         <v>45138</v>
       </c>
       <c r="D2210" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2210" t="n">
         <v>0.25</v>
@@ -67497,7 +67500,7 @@
     </row>
     <row r="2211">
       <c r="A2211" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2211" s="1" t="n">
         <v>45657</v>
@@ -67506,7 +67509,7 @@
         <v>45503</v>
       </c>
       <c r="D2211" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2211" t="n">
         <v>0.25</v>
@@ -67526,7 +67529,7 @@
     </row>
     <row r="2212">
       <c r="A2212" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2212" s="1" t="n">
         <v>43830</v>
@@ -67535,7 +67538,7 @@
         <v>43676</v>
       </c>
       <c r="D2212" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2212" t="n">
         <v>0.277777777777778</v>
@@ -67555,7 +67558,7 @@
     </row>
     <row r="2213">
       <c r="A2213" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2213" s="1" t="n">
         <v>44196</v>
@@ -67564,7 +67567,7 @@
         <v>44099</v>
       </c>
       <c r="D2213" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2213" t="n">
         <v>0.305555555555556</v>
@@ -67584,7 +67587,7 @@
     </row>
     <row r="2214">
       <c r="A2214" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2214" s="1" t="n">
         <v>44561</v>
@@ -67593,7 +67596,7 @@
         <v>44410</v>
       </c>
       <c r="D2214" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2214" t="n">
         <v>0.305555555555556</v>
@@ -67613,7 +67616,7 @@
     </row>
     <row r="2215">
       <c r="A2215" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2215" s="1" t="n">
         <v>44926</v>
@@ -67622,7 +67625,7 @@
         <v>44964</v>
       </c>
       <c r="D2215" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2215" t="n">
         <v>0.305555555555556</v>
@@ -67642,7 +67645,7 @@
     </row>
     <row r="2216">
       <c r="A2216" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2216" s="1" t="n">
         <v>45291</v>
@@ -67651,7 +67654,7 @@
         <v>45121</v>
       </c>
       <c r="D2216" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2216" t="n">
         <v>0.305555555555556</v>
@@ -67671,7 +67674,7 @@
     </row>
     <row r="2217">
       <c r="A2217" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2217" s="1" t="n">
         <v>45657</v>
@@ -67680,7 +67683,7 @@
         <v>45497</v>
       </c>
       <c r="D2217" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2217" t="n">
         <v>0.305555555555556</v>
@@ -67700,7 +67703,7 @@
     </row>
     <row r="2218">
       <c r="A2218" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2218" s="1" t="n">
         <v>43830</v>
@@ -67709,7 +67712,7 @@
         <v>43676</v>
       </c>
       <c r="D2218" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2218" t="n">
         <v>0.416666666666667</v>
@@ -67729,7 +67732,7 @@
     </row>
     <row r="2219">
       <c r="A2219" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2219" s="1" t="n">
         <v>44196</v>
@@ -67738,7 +67741,7 @@
         <v>44103</v>
       </c>
       <c r="D2219" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2219" t="n">
         <v>0.472222222222222</v>
@@ -67758,7 +67761,7 @@
     </row>
     <row r="2220">
       <c r="A2220" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2220" s="1" t="n">
         <v>44561</v>
@@ -67767,7 +67770,7 @@
         <v>44406</v>
       </c>
       <c r="D2220" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2220" t="n">
         <v>0.472222222222222</v>
@@ -67787,7 +67790,7 @@
     </row>
     <row r="2221">
       <c r="A2221" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2221" s="1" t="n">
         <v>44926</v>
@@ -67796,7 +67799,7 @@
         <v>44771</v>
       </c>
       <c r="D2221" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2221" t="n">
         <v>0.472222222222222</v>
@@ -67816,7 +67819,7 @@
     </row>
     <row r="2222">
       <c r="A2222" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2222" s="1" t="n">
         <v>45291</v>
@@ -67825,7 +67828,7 @@
         <v>45138</v>
       </c>
       <c r="D2222" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2222" t="n">
         <v>0.472222222222222</v>
@@ -67845,7 +67848,7 @@
     </row>
     <row r="2223">
       <c r="A2223" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B2223" s="1" t="n">
         <v>45657</v>
@@ -67854,7 +67857,7 @@
         <v>45503</v>
       </c>
       <c r="D2223" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E2223" t="n">
         <v>0.472222222222222</v>
@@ -67874,7 +67877,7 @@
     </row>
     <row r="2224">
       <c r="A2224" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2224" s="1" t="n">
         <v>43465</v>
@@ -67883,7 +67886,7 @@
         <v>43403</v>
       </c>
       <c r="D2224" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2224" t="n">
         <v>0.277777777777778</v>
@@ -67903,7 +67906,7 @@
     </row>
     <row r="2225">
       <c r="A2225" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2225" s="1" t="n">
         <v>43830</v>
@@ -67912,7 +67915,7 @@
         <v>43677</v>
       </c>
       <c r="D2225" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2225" t="n">
         <v>0.277777777777778</v>
@@ -67932,7 +67935,7 @@
     </row>
     <row r="2226">
       <c r="A2226" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2226" s="1" t="n">
         <v>44196</v>
@@ -67941,7 +67944,7 @@
         <v>44160</v>
       </c>
       <c r="D2226" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2226" t="n">
         <v>0.416666666666667</v>
@@ -67961,7 +67964,7 @@
     </row>
     <row r="2227">
       <c r="A2227" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2227" s="1" t="n">
         <v>44561</v>
@@ -67970,7 +67973,7 @@
         <v>44385</v>
       </c>
       <c r="D2227" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2227" t="n">
         <v>0.416666666666667</v>
@@ -67990,7 +67993,7 @@
     </row>
     <row r="2228">
       <c r="A2228" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2228" s="1" t="n">
         <v>44926</v>
@@ -67999,7 +68002,7 @@
         <v>44886</v>
       </c>
       <c r="D2228" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2228" t="n">
         <v>0.333333333333333</v>
@@ -68019,7 +68022,7 @@
     </row>
     <row r="2229">
       <c r="A2229" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2229" s="1" t="n">
         <v>45291</v>
@@ -68028,7 +68031,7 @@
         <v>45125</v>
       </c>
       <c r="D2229" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2229" t="n">
         <v>0.333333333333333</v>
@@ -68048,7 +68051,7 @@
     </row>
     <row r="2230">
       <c r="A2230" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2230" s="1" t="n">
         <v>45657</v>
@@ -68057,7 +68060,7 @@
         <v>45478</v>
       </c>
       <c r="D2230" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E2230" t="n">
         <v>0.333333333333333</v>
@@ -68077,7 +68080,7 @@
     </row>
     <row r="2231">
       <c r="A2231" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2231" s="1" t="n">
         <v>43830</v>
@@ -68086,7 +68089,7 @@
         <v>43718</v>
       </c>
       <c r="D2231" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E2231" t="n">
         <v>0.361111111111111</v>
@@ -68106,7 +68109,7 @@
     </row>
     <row r="2232">
       <c r="A2232" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2232" s="1" t="n">
         <v>44196</v>
@@ -68115,7 +68118,7 @@
         <v>44102</v>
       </c>
       <c r="D2232" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E2232" t="n">
         <v>0.361111111111111</v>
@@ -68135,7 +68138,7 @@
     </row>
     <row r="2233">
       <c r="A2233" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2233" s="1" t="n">
         <v>44561</v>
@@ -68144,7 +68147,7 @@
         <v>44435</v>
       </c>
       <c r="D2233" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E2233" t="n">
         <v>0.361111111111111</v>
@@ -68164,7 +68167,7 @@
     </row>
     <row r="2234">
       <c r="A2234" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2234" s="1" t="n">
         <v>44926</v>
@@ -68173,7 +68176,7 @@
         <v>44827</v>
       </c>
       <c r="D2234" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E2234" t="n">
         <v>0.388888888888889</v>
@@ -68193,7 +68196,7 @@
     </row>
     <row r="2235">
       <c r="A2235" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2235" s="1" t="n">
         <v>45291</v>
@@ -68202,7 +68205,7 @@
         <v>45133</v>
       </c>
       <c r="D2235" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E2235" t="n">
         <v>0.388888888888889</v>
@@ -68222,7 +68225,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>43830</v>
@@ -68231,7 +68234,7 @@
         <v>43677</v>
       </c>
       <c r="D2236" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E2236" t="n">
         <v>0.444444444444444</v>
@@ -68251,7 +68254,7 @@
     </row>
     <row r="2237">
       <c r="A2237" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B2237" s="1" t="n">
         <v>44196</v>
@@ -68260,7 +68263,7 @@
         <v>44104</v>
       </c>
       <c r="D2237" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E2237" t="n">
         <v>0.444444444444444</v>
@@ -68280,7 +68283,7 @@
     </row>
     <row r="2238">
       <c r="A2238" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B2238" s="1" t="n">
         <v>44561</v>
@@ -68289,7 +68292,7 @@
         <v>44407</v>
       </c>
       <c r="D2238" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E2238" t="n">
         <v>0.444444444444444</v>
@@ -68309,7 +68312,7 @@
     </row>
     <row r="2239">
       <c r="A2239" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B2239" s="1" t="n">
         <v>44561</v>
@@ -68318,7 +68321,7 @@
         <v>44410</v>
       </c>
       <c r="D2239" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E2239" t="n">
         <v>0.444444444444444</v>
@@ -68338,7 +68341,7 @@
     </row>
     <row r="2240">
       <c r="A2240" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B2240" s="1" t="n">
         <v>44926</v>
@@ -68347,7 +68350,7 @@
         <v>44774</v>
       </c>
       <c r="D2240" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E2240" t="n">
         <v>0.444444444444444</v>
@@ -68367,7 +68370,7 @@
     </row>
     <row r="2241">
       <c r="A2241" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B2241" s="1" t="n">
         <v>45291</v>
@@ -68376,7 +68379,7 @@
         <v>45138</v>
       </c>
       <c r="D2241" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E2241" t="n">
         <v>0.444444444444444</v>
@@ -68396,7 +68399,7 @@
     </row>
     <row r="2242">
       <c r="A2242" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2242" s="1" t="n">
         <v>43830</v>
@@ -68405,7 +68408,7 @@
         <v>43677</v>
       </c>
       <c r="D2242" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2242" t="n">
         <v>0.25</v>
@@ -68425,7 +68428,7 @@
     </row>
     <row r="2243">
       <c r="A2243" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2243" s="1" t="n">
         <v>44196</v>
@@ -68434,7 +68437,7 @@
         <v>44097</v>
       </c>
       <c r="D2243" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2243" t="n">
         <v>0.25</v>
@@ -68454,7 +68457,7 @@
     </row>
     <row r="2244">
       <c r="A2244" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2244" s="1" t="n">
         <v>44561</v>
@@ -68463,7 +68466,7 @@
         <v>44410</v>
       </c>
       <c r="D2244" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2244" t="n">
         <v>0.25</v>
@@ -68483,7 +68486,7 @@
     </row>
     <row r="2245">
       <c r="A2245" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2245" s="1" t="n">
         <v>44926</v>
@@ -68492,7 +68495,7 @@
         <v>44774</v>
       </c>
       <c r="D2245" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2245" t="n">
         <v>0.25</v>
@@ -68512,7 +68515,7 @@
     </row>
     <row r="2246">
       <c r="A2246" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2246" s="1" t="n">
         <v>45291</v>
@@ -68521,7 +68524,7 @@
         <v>45119</v>
       </c>
       <c r="D2246" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2246" t="n">
         <v>0.25</v>
@@ -68541,7 +68544,7 @@
     </row>
     <row r="2247">
       <c r="A2247" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2247" s="1" t="n">
         <v>45657</v>
@@ -68550,7 +68553,7 @@
         <v>45467</v>
       </c>
       <c r="D2247" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2247" t="n">
         <v>0.25</v>
@@ -68570,7 +68573,7 @@
     </row>
     <row r="2248">
       <c r="A2248" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B2248" s="1" t="n">
         <v>43465</v>
@@ -68579,7 +68582,7 @@
         <v>43404</v>
       </c>
       <c r="D2248" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2248" t="n">
         <v>0.611111111111111</v>
@@ -68599,7 +68602,7 @@
     </row>
     <row r="2249">
       <c r="A2249" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B2249" s="1" t="n">
         <v>43830</v>
@@ -68608,7 +68611,7 @@
         <v>43677</v>
       </c>
       <c r="D2249" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2249" t="n">
         <v>0.611111111111111</v>
@@ -68628,7 +68631,7 @@
     </row>
     <row r="2250">
       <c r="A2250" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B2250" s="1" t="n">
         <v>44196</v>
@@ -68637,7 +68640,7 @@
         <v>44084</v>
       </c>
       <c r="D2250" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2250" t="n">
         <v>0.611111111111111</v>
@@ -68657,7 +68660,7 @@
     </row>
     <row r="2251">
       <c r="A2251" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2251" s="1" t="n">
         <v>44196</v>
@@ -68666,7 +68669,7 @@
         <v>44084</v>
       </c>
       <c r="D2251" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2251" t="n">
         <v>0.611111111111111</v>
@@ -68686,7 +68689,7 @@
     </row>
     <row r="2252">
       <c r="A2252" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2252" s="1" t="n">
         <v>44561</v>
@@ -68695,7 +68698,7 @@
         <v>44407</v>
       </c>
       <c r="D2252" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2252" t="n">
         <v>0.666666666666667</v>
@@ -68715,7 +68718,7 @@
     </row>
     <row r="2253">
       <c r="A2253" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2253" s="1" t="n">
         <v>44926</v>
@@ -68724,7 +68727,7 @@
         <v>44774</v>
       </c>
       <c r="D2253" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2253" t="n">
         <v>0.666666666666667</v>
@@ -68744,7 +68747,7 @@
     </row>
     <row r="2254">
       <c r="A2254" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2254" s="1" t="n">
         <v>45291</v>
@@ -68753,7 +68756,7 @@
         <v>45138</v>
       </c>
       <c r="D2254" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2254" t="n">
         <v>0.666666666666667</v>
@@ -68773,7 +68776,7 @@
     </row>
     <row r="2255">
       <c r="A2255" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2255" s="1" t="n">
         <v>45657</v>
@@ -68782,7 +68785,7 @@
         <v>45504</v>
       </c>
       <c r="D2255" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2255" t="n">
         <v>0.666666666666667</v>
@@ -68802,7 +68805,7 @@
     </row>
     <row r="2256">
       <c r="A2256" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2256" s="1" t="n">
         <v>43465</v>
@@ -68811,7 +68814,7 @@
         <v>43404</v>
       </c>
       <c r="D2256" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2256" t="n">
         <v>0.611111111111111</v>
@@ -68831,7 +68834,7 @@
     </row>
     <row r="2257">
       <c r="A2257" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2257" s="1" t="n">
         <v>43830</v>
@@ -68840,7 +68843,7 @@
         <v>43677</v>
       </c>
       <c r="D2257" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2257" t="n">
         <v>0.611111111111111</v>
@@ -68860,7 +68863,7 @@
     </row>
     <row r="2258">
       <c r="A2258" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2258" s="1" t="n">
         <v>44196</v>
@@ -68869,7 +68872,7 @@
         <v>44043</v>
       </c>
       <c r="D2258" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2258" t="n">
         <v>0.611111111111111</v>
@@ -68889,7 +68892,7 @@
     </row>
     <row r="2259">
       <c r="A2259" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2259" s="1" t="n">
         <v>44561</v>
@@ -68898,7 +68901,7 @@
         <v>44435</v>
       </c>
       <c r="D2259" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2259" t="n">
         <v>0.611111111111111</v>
@@ -68918,7 +68921,7 @@
     </row>
     <row r="2260">
       <c r="A2260" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2260" s="1" t="n">
         <v>44926</v>
@@ -68927,7 +68930,7 @@
         <v>44771</v>
       </c>
       <c r="D2260" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2260" t="n">
         <v>0.722222222222222</v>
@@ -68947,7 +68950,7 @@
     </row>
     <row r="2261">
       <c r="A2261" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2261" s="1" t="n">
         <v>45291</v>
@@ -68956,7 +68959,7 @@
         <v>45138</v>
       </c>
       <c r="D2261" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2261" t="n">
         <v>0.777777777777778</v>
@@ -68976,7 +68979,7 @@
     </row>
     <row r="2262">
       <c r="A2262" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2262" s="1" t="n">
         <v>45657</v>
@@ -68985,7 +68988,7 @@
         <v>45504</v>
       </c>
       <c r="D2262" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2262" t="n">
         <v>0.777777777777778</v>
@@ -69005,7 +69008,7 @@
     </row>
     <row r="2263">
       <c r="A2263" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2263" s="1" t="n">
         <v>43830</v>
@@ -69014,7 +69017,7 @@
         <v>43677</v>
       </c>
       <c r="D2263" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2263" t="n">
         <v>0.75</v>
@@ -69034,7 +69037,7 @@
     </row>
     <row r="2264">
       <c r="A2264" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2264" s="1" t="n">
         <v>44196</v>
@@ -69043,7 +69046,7 @@
         <v>44043</v>
       </c>
       <c r="D2264" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2264" t="n">
         <v>0.777777777777778</v>
@@ -69063,7 +69066,7 @@
     </row>
     <row r="2265">
       <c r="A2265" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2265" s="1" t="n">
         <v>44561</v>
@@ -69072,7 +69075,7 @@
         <v>44407</v>
       </c>
       <c r="D2265" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2265" t="n">
         <v>0.75</v>
@@ -69092,7 +69095,7 @@
     </row>
     <row r="2266">
       <c r="A2266" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2266" s="1" t="n">
         <v>44926</v>
@@ -69101,7 +69104,7 @@
         <v>44771</v>
       </c>
       <c r="D2266" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2266" t="n">
         <v>0.75</v>
@@ -69121,7 +69124,7 @@
     </row>
     <row r="2267">
       <c r="A2267" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2267" s="1" t="n">
         <v>45291</v>
@@ -69130,7 +69133,7 @@
         <v>45135</v>
       </c>
       <c r="D2267" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2267" t="n">
         <v>0.75</v>
@@ -69150,7 +69153,7 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>44561</v>
@@ -69159,7 +69162,7 @@
         <v>44410</v>
       </c>
       <c r="D2268" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2268" t="n">
         <v>0.388888888888889</v>
@@ -69179,7 +69182,7 @@
     </row>
     <row r="2269">
       <c r="A2269" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2269" s="1" t="n">
         <v>44926</v>
@@ -69188,7 +69191,7 @@
         <v>44774</v>
       </c>
       <c r="D2269" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2269" t="n">
         <v>0.5</v>
@@ -69208,7 +69211,7 @@
     </row>
     <row r="2270">
       <c r="A2270" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2270" s="1" t="n">
         <v>45291</v>
@@ -69217,7 +69220,7 @@
         <v>45138</v>
       </c>
       <c r="D2270" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2270" t="n">
         <v>0.527777777777778</v>
@@ -69237,7 +69240,7 @@
     </row>
     <row r="2271">
       <c r="A2271" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2271" s="1" t="n">
         <v>45657</v>
@@ -69246,7 +69249,7 @@
         <v>45503</v>
       </c>
       <c r="D2271" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2271" t="n">
         <v>0.527777777777778</v>
@@ -69266,7 +69269,7 @@
     </row>
     <row r="2272">
       <c r="A2272" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2272" s="1" t="n">
         <v>43465</v>
@@ -69275,7 +69278,7 @@
         <v>43403</v>
       </c>
       <c r="D2272" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2272" t="n">
         <v>0.333333333333333</v>
@@ -69295,7 +69298,7 @@
     </row>
     <row r="2273">
       <c r="A2273" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2273" s="1" t="n">
         <v>43830</v>
@@ -69304,7 +69307,7 @@
         <v>43677</v>
       </c>
       <c r="D2273" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2273" t="n">
         <v>0.333333333333333</v>
@@ -69324,7 +69327,7 @@
     </row>
     <row r="2274">
       <c r="A2274" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2274" s="1" t="n">
         <v>44196</v>
@@ -69333,7 +69336,7 @@
         <v>44039</v>
       </c>
       <c r="D2274" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2274" t="n">
         <v>0.333333333333333</v>
@@ -69353,7 +69356,7 @@
     </row>
     <row r="2275">
       <c r="A2275" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2275" s="1" t="n">
         <v>44561</v>
@@ -69362,7 +69365,7 @@
         <v>44407</v>
       </c>
       <c r="D2275" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2275" t="n">
         <v>0.333333333333333</v>
@@ -69382,7 +69385,7 @@
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2276" s="1" t="n">
         <v>44926</v>
@@ -69391,7 +69394,7 @@
         <v>44771</v>
       </c>
       <c r="D2276" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2276" t="n">
         <v>0.333333333333333</v>
@@ -69411,7 +69414,7 @@
     </row>
     <row r="2277">
       <c r="A2277" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2277" s="1" t="n">
         <v>45291</v>
@@ -69420,7 +69423,7 @@
         <v>45138</v>
       </c>
       <c r="D2277" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2277" t="n">
         <v>0.333333333333333</v>
@@ -69440,7 +69443,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
@@ -69449,7 +69452,7 @@
         <v>45504</v>
       </c>
       <c r="D2278" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2278" t="n">
         <v>0.333333333333333</v>
@@ -69469,7 +69472,7 @@
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2279" s="1" t="n">
         <v>44561</v>
@@ -69478,7 +69481,7 @@
         <v>44406</v>
       </c>
       <c r="D2279" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2279" t="n">
         <v>0.611111111111111</v>
@@ -69498,7 +69501,7 @@
     </row>
     <row r="2280">
       <c r="A2280" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2280" s="1" t="n">
         <v>44926</v>
@@ -69507,7 +69510,7 @@
         <v>44771</v>
       </c>
       <c r="D2280" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2280" t="n">
         <v>0.722222222222222</v>
@@ -69527,7 +69530,7 @@
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2281" s="1" t="n">
         <v>45291</v>
@@ -69536,7 +69539,7 @@
         <v>45138</v>
       </c>
       <c r="D2281" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2281" t="n">
         <v>0.722222222222222</v>
@@ -69556,7 +69559,7 @@
     </row>
     <row r="2282">
       <c r="A2282" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2282" s="1" t="n">
         <v>45657</v>
@@ -69565,7 +69568,7 @@
         <v>45504</v>
       </c>
       <c r="D2282" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2282" t="n">
         <v>0.722222222222222</v>
@@ -69585,7 +69588,7 @@
     </row>
     <row r="2283">
       <c r="A2283" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2283" s="1" t="n">
         <v>43830</v>
@@ -69594,7 +69597,7 @@
         <v>43669</v>
       </c>
       <c r="D2283" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2283" t="n">
         <v>0.277777777777778</v>
@@ -69614,7 +69617,7 @@
     </row>
     <row r="2284">
       <c r="A2284" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2284" s="1" t="n">
         <v>44196</v>
@@ -69623,7 +69626,7 @@
         <v>44090</v>
       </c>
       <c r="D2284" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2284" t="n">
         <v>0.277777777777778</v>
@@ -69643,7 +69646,7 @@
     </row>
     <row r="2285">
       <c r="A2285" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2285" s="1" t="n">
         <v>44561</v>
@@ -69652,7 +69655,7 @@
         <v>44393</v>
       </c>
       <c r="D2285" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2285" t="n">
         <v>0.277777777777778</v>
@@ -69672,7 +69675,7 @@
     </row>
     <row r="2286">
       <c r="A2286" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2286" s="1" t="n">
         <v>44926</v>
@@ -69681,7 +69684,7 @@
         <v>44714</v>
       </c>
       <c r="D2286" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2286" t="n">
         <v>0.277777777777778</v>
@@ -69701,7 +69704,7 @@
     </row>
     <row r="2287">
       <c r="A2287" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2287" s="1" t="n">
         <v>45291</v>
@@ -69710,7 +69713,7 @@
         <v>45124</v>
       </c>
       <c r="D2287" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2287" t="n">
         <v>0.277777777777778</v>
@@ -69730,7 +69733,7 @@
     </row>
     <row r="2288">
       <c r="A2288" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2288" s="1" t="n">
         <v>45657</v>
@@ -69739,7 +69742,7 @@
         <v>45469</v>
       </c>
       <c r="D2288" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2288" t="n">
         <v>0.277777777777778</v>
@@ -69759,7 +69762,7 @@
     </row>
     <row r="2289">
       <c r="A2289" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B2289" s="1" t="n">
         <v>45291</v>
@@ -69768,7 +69771,7 @@
         <v>45135</v>
       </c>
       <c r="D2289" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E2289" t="n">
         <v>0.75</v>
@@ -69788,7 +69791,7 @@
     </row>
     <row r="2290">
       <c r="A2290" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2290" s="1" t="n">
         <v>43830</v>
@@ -69797,7 +69800,7 @@
         <v>43677</v>
       </c>
       <c r="D2290" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2290" t="n">
         <v>0.388888888888889</v>
@@ -69817,7 +69820,7 @@
     </row>
     <row r="2291">
       <c r="A2291" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2291" s="1" t="n">
         <v>44196</v>
@@ -69826,7 +69829,7 @@
         <v>44039</v>
       </c>
       <c r="D2291" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2291" t="n">
         <v>0.388888888888889</v>
@@ -69846,7 +69849,7 @@
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2292" s="1" t="n">
         <v>44561</v>
@@ -69855,7 +69858,7 @@
         <v>44399</v>
       </c>
       <c r="D2292" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2292" t="n">
         <v>0.388888888888889</v>
@@ -69875,7 +69878,7 @@
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2293" s="1" t="n">
         <v>44926</v>
@@ -69884,7 +69887,7 @@
         <v>44770</v>
       </c>
       <c r="D2293" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2293" t="n">
         <v>0.472222222222222</v>
@@ -69904,7 +69907,7 @@
     </row>
     <row r="2294">
       <c r="A2294" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2294" s="1" t="n">
         <v>45291</v>
@@ -69913,7 +69916,7 @@
         <v>45135</v>
       </c>
       <c r="D2294" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2294" t="n">
         <v>0.527777777777778</v>
@@ -69933,7 +69936,7 @@
     </row>
     <row r="2295">
       <c r="A2295" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2295" s="1" t="n">
         <v>45657</v>
@@ -69942,7 +69945,7 @@
         <v>45499</v>
       </c>
       <c r="D2295" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2295" t="n">
         <v>0.527777777777778</v>
@@ -69962,7 +69965,7 @@
     </row>
     <row r="2296">
       <c r="A2296" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2296" s="1" t="n">
         <v>43465</v>
@@ -69971,7 +69974,7 @@
         <v>43462</v>
       </c>
       <c r="D2296" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2296" t="n">
         <v>0.5</v>
@@ -69991,7 +69994,7 @@
     </row>
     <row r="2297">
       <c r="A2297" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2297" s="1" t="n">
         <v>43830</v>
@@ -70000,7 +70003,7 @@
         <v>43679</v>
       </c>
       <c r="D2297" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2297" t="n">
         <v>0.5</v>
@@ -70020,7 +70023,7 @@
     </row>
     <row r="2298">
       <c r="A2298" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2298" s="1" t="n">
         <v>44196</v>
@@ -70029,7 +70032,7 @@
         <v>44103</v>
       </c>
       <c r="D2298" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2298" t="n">
         <v>0.5</v>
@@ -70049,7 +70052,7 @@
     </row>
     <row r="2299">
       <c r="A2299" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2299" s="1" t="n">
         <v>44561</v>
@@ -70058,7 +70061,7 @@
         <v>44405</v>
       </c>
       <c r="D2299" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2299" t="n">
         <v>0.5</v>
@@ -70078,7 +70081,7 @@
     </row>
     <row r="2300">
       <c r="A2300" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2300" s="1" t="n">
         <v>44926</v>
@@ -70087,7 +70090,7 @@
         <v>44762</v>
       </c>
       <c r="D2300" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2300" t="n">
         <v>0.5</v>
@@ -70107,7 +70110,7 @@
     </row>
     <row r="2301">
       <c r="A2301" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2301" s="1" t="n">
         <v>45291</v>
@@ -70116,7 +70119,7 @@
         <v>45138</v>
       </c>
       <c r="D2301" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2301" t="n">
         <v>0.5</v>
@@ -70136,7 +70139,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2302" s="1" t="n">
         <v>45657</v>
@@ -70145,7 +70148,7 @@
         <v>45504</v>
       </c>
       <c r="D2302" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2302" t="n">
         <v>0.5</v>
@@ -70165,7 +70168,7 @@
     </row>
     <row r="2303">
       <c r="A2303" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2303" s="1" t="n">
         <v>43465</v>
@@ -70174,7 +70177,7 @@
         <v>43403</v>
       </c>
       <c r="D2303" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2303" t="n">
         <v>0.722222222222222</v>
@@ -70194,7 +70197,7 @@
     </row>
     <row r="2304">
       <c r="A2304" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2304" s="1" t="n">
         <v>43830</v>
@@ -70203,7 +70206,7 @@
         <v>43672</v>
       </c>
       <c r="D2304" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2304" t="n">
         <v>0.722222222222222</v>
@@ -70223,7 +70226,7 @@
     </row>
     <row r="2305">
       <c r="A2305" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2305" s="1" t="n">
         <v>44196</v>
@@ -70232,7 +70235,7 @@
         <v>44042</v>
       </c>
       <c r="D2305" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2305" t="n">
         <v>0.777777777777778</v>
@@ -70252,7 +70255,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2306" s="1" t="n">
         <v>44561</v>
@@ -70261,7 +70264,7 @@
         <v>44400</v>
       </c>
       <c r="D2306" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2306" t="n">
         <v>0.777777777777778</v>
@@ -70281,7 +70284,7 @@
     </row>
     <row r="2307">
       <c r="A2307" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2307" s="1" t="n">
         <v>44926</v>
@@ -70290,7 +70293,7 @@
         <v>44764</v>
       </c>
       <c r="D2307" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2307" t="n">
         <v>0.777777777777778</v>
@@ -70310,7 +70313,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2308" s="1" t="n">
         <v>45291</v>
@@ -70319,7 +70322,7 @@
         <v>45138</v>
       </c>
       <c r="D2308" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2308" t="n">
         <v>0.722222222222222</v>
@@ -70339,7 +70342,7 @@
     </row>
     <row r="2309">
       <c r="A2309" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2309" s="1" t="n">
         <v>43465</v>
@@ -70348,7 +70351,7 @@
         <v>43403</v>
       </c>
       <c r="D2309" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2309" t="n">
         <v>0.638888888888889</v>
@@ -70368,7 +70371,7 @@
     </row>
     <row r="2310">
       <c r="A2310" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2310" s="1" t="n">
         <v>43830</v>
@@ -70377,7 +70380,7 @@
         <v>43796</v>
       </c>
       <c r="D2310" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2310" t="n">
         <v>0.777777777777778</v>
@@ -70397,7 +70400,7 @@
     </row>
     <row r="2311">
       <c r="A2311" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2311" s="1" t="n">
         <v>44196</v>
@@ -70406,7 +70409,7 @@
         <v>44043</v>
       </c>
       <c r="D2311" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2311" t="n">
         <v>0.777777777777778</v>
@@ -70426,7 +70429,7 @@
     </row>
     <row r="2312">
       <c r="A2312" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2312" s="1" t="n">
         <v>44561</v>
@@ -70435,7 +70438,7 @@
         <v>44407</v>
       </c>
       <c r="D2312" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2312" t="n">
         <v>0.777777777777778</v>
@@ -70455,7 +70458,7 @@
     </row>
     <row r="2313">
       <c r="A2313" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2313" s="1" t="n">
         <v>44926</v>
@@ -70464,7 +70467,7 @@
         <v>44771</v>
       </c>
       <c r="D2313" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2313" t="n">
         <v>0.777777777777778</v>
@@ -70484,7 +70487,7 @@
     </row>
     <row r="2314">
       <c r="A2314" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2314" s="1" t="n">
         <v>45291</v>
@@ -70493,7 +70496,7 @@
         <v>45138</v>
       </c>
       <c r="D2314" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2314" t="n">
         <v>0.777777777777778</v>
@@ -70513,7 +70516,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2315" s="1" t="n">
         <v>45657</v>
@@ -70522,7 +70525,7 @@
         <v>45504</v>
       </c>
       <c r="D2315" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2315" t="n">
         <v>0.777777777777778</v>
@@ -70542,7 +70545,7 @@
     </row>
     <row r="2316">
       <c r="A2316" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2316" s="1" t="n">
         <v>43830</v>
@@ -70551,7 +70554,7 @@
         <v>43676</v>
       </c>
       <c r="D2316" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2316" t="n">
         <v>0.5</v>
@@ -70571,7 +70574,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2317" s="1" t="n">
         <v>44196</v>
@@ -70580,7 +70583,7 @@
         <v>44104</v>
       </c>
       <c r="D2317" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2317" t="n">
         <v>0.5</v>
@@ -70600,7 +70603,7 @@
     </row>
     <row r="2318">
       <c r="A2318" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2318" s="1" t="n">
         <v>44561</v>
@@ -70609,7 +70612,7 @@
         <v>44407</v>
       </c>
       <c r="D2318" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2318" t="n">
         <v>0.5</v>
@@ -70629,7 +70632,7 @@
     </row>
     <row r="2319">
       <c r="A2319" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2319" s="1" t="n">
         <v>44926</v>
@@ -70638,7 +70641,7 @@
         <v>44771</v>
       </c>
       <c r="D2319" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2319" t="n">
         <v>0.527777777777778</v>
@@ -70658,7 +70661,7 @@
     </row>
     <row r="2320">
       <c r="A2320" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2320" s="1" t="n">
         <v>45291</v>
@@ -70667,7 +70670,7 @@
         <v>45138</v>
       </c>
       <c r="D2320" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2320" t="n">
         <v>0.527777777777778</v>
@@ -70687,7 +70690,7 @@
     </row>
     <row r="2321">
       <c r="A2321" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2321" s="1" t="n">
         <v>45657</v>
@@ -70696,7 +70699,7 @@
         <v>45504</v>
       </c>
       <c r="D2321" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2321" t="n">
         <v>0.527777777777778</v>
@@ -70716,7 +70719,7 @@
     </row>
     <row r="2322">
       <c r="A2322" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2322" s="1" t="n">
         <v>44561</v>
@@ -70725,7 +70728,7 @@
         <v>44410</v>
       </c>
       <c r="D2322" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E2322" t="n">
         <v>0.5</v>
@@ -70745,7 +70748,7 @@
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2323" s="1" t="n">
         <v>44926</v>
@@ -70754,7 +70757,7 @@
         <v>44774</v>
       </c>
       <c r="D2323" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E2323" t="n">
         <v>0.5</v>
@@ -70774,7 +70777,7 @@
     </row>
     <row r="2324">
       <c r="A2324" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2324" s="1" t="n">
         <v>45291</v>
@@ -70783,7 +70786,7 @@
         <v>45128</v>
       </c>
       <c r="D2324" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E2324" t="n">
         <v>0.5</v>
@@ -70803,7 +70806,7 @@
     </row>
     <row r="2325">
       <c r="A2325" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2325" s="1" t="n">
         <v>45657</v>
@@ -70812,7 +70815,7 @@
         <v>45503</v>
       </c>
       <c r="D2325" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E2325" t="n">
         <v>0.527777777777778</v>
@@ -70832,7 +70835,7 @@
     </row>
     <row r="2326">
       <c r="A2326" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2326" s="1" t="n">
         <v>45291</v>
@@ -70841,7 +70844,7 @@
         <v>45128</v>
       </c>
       <c r="D2326" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E2326" t="n">
         <v>0.5</v>
@@ -70861,7 +70864,7 @@
     </row>
     <row r="2327">
       <c r="A2327" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2327" s="1" t="n">
         <v>45657</v>
@@ -70870,7 +70873,7 @@
         <v>45503</v>
       </c>
       <c r="D2327" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E2327" t="n">
         <v>0.527777777777778</v>
@@ -70890,7 +70893,7 @@
     </row>
     <row r="2328">
       <c r="A2328" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B2328" s="1" t="n">
         <v>44561</v>
@@ -70899,7 +70902,7 @@
         <v>44409</v>
       </c>
       <c r="D2328" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E2328" t="n">
         <v>0.361111111111111</v>
@@ -70919,7 +70922,7 @@
     </row>
     <row r="2329">
       <c r="A2329" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B2329" s="1" t="n">
         <v>44926</v>
@@ -70928,7 +70931,7 @@
         <v>44770</v>
       </c>
       <c r="D2329" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E2329" t="n">
         <v>0.472222222222222</v>
@@ -70948,7 +70951,7 @@
     </row>
     <row r="2330">
       <c r="A2330" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B2330" s="1" t="n">
         <v>45291</v>
@@ -70957,7 +70960,7 @@
         <v>45138</v>
       </c>
       <c r="D2330" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E2330" t="n">
         <v>0.5</v>
@@ -70977,7 +70980,7 @@
     </row>
     <row r="2331">
       <c r="A2331" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2331" s="1" t="n">
         <v>43830</v>
@@ -70986,7 +70989,7 @@
         <v>43677</v>
       </c>
       <c r="D2331" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2331" t="n">
         <v>0.333333333333333</v>
@@ -71006,7 +71009,7 @@
     </row>
     <row r="2332">
       <c r="A2332" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2332" s="1" t="n">
         <v>44196</v>
@@ -71015,7 +71018,7 @@
         <v>44104</v>
       </c>
       <c r="D2332" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2332" t="n">
         <v>0.361111111111111</v>
@@ -71035,7 +71038,7 @@
     </row>
     <row r="2333">
       <c r="A2333" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2333" s="1" t="n">
         <v>44561</v>
@@ -71044,7 +71047,7 @@
         <v>44407</v>
       </c>
       <c r="D2333" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2333" t="n">
         <v>0.361111111111111</v>
@@ -71064,7 +71067,7 @@
     </row>
     <row r="2334">
       <c r="A2334" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2334" s="1" t="n">
         <v>44926</v>
@@ -71073,7 +71076,7 @@
         <v>44774</v>
       </c>
       <c r="D2334" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2334" t="n">
         <v>0.361111111111111</v>
@@ -71093,7 +71096,7 @@
     </row>
     <row r="2335">
       <c r="A2335" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2335" s="1" t="n">
         <v>45291</v>
@@ -71102,7 +71105,7 @@
         <v>45138</v>
       </c>
       <c r="D2335" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2335" t="n">
         <v>0.361111111111111</v>
@@ -71122,7 +71125,7 @@
     </row>
     <row r="2336">
       <c r="A2336" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2336" s="1" t="n">
         <v>45657</v>
@@ -71131,7 +71134,7 @@
         <v>45504</v>
       </c>
       <c r="D2336" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2336" t="n">
         <v>0.361111111111111</v>
@@ -71151,7 +71154,7 @@
     </row>
     <row r="2337">
       <c r="A2337" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B2337" s="1" t="n">
         <v>44561</v>
@@ -71160,7 +71163,7 @@
         <v>44223</v>
       </c>
       <c r="D2337" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E2337" t="n">
         <v>0.583333333333333</v>
@@ -71180,7 +71183,7 @@
     </row>
     <row r="2338">
       <c r="A2338" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2338" s="1" t="n">
         <v>43830</v>
@@ -71189,7 +71192,7 @@
         <v>43677</v>
       </c>
       <c r="D2338" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E2338" t="n">
         <v>0.333333333333333</v>
@@ -71209,7 +71212,7 @@
     </row>
     <row r="2339">
       <c r="A2339" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2339" s="1" t="n">
         <v>44196</v>
@@ -71218,7 +71221,7 @@
         <v>44092</v>
       </c>
       <c r="D2339" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2339" t="n">
         <v>0.333333333333333</v>
@@ -71238,7 +71241,7 @@
     </row>
     <row r="2340">
       <c r="A2340" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2340" s="1" t="n">
         <v>44561</v>
@@ -71247,7 +71250,7 @@
         <v>44407</v>
       </c>
       <c r="D2340" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2340" t="n">
         <v>0.333333333333333</v>
@@ -71267,7 +71270,7 @@
     </row>
     <row r="2341">
       <c r="A2341" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2341" s="1" t="n">
         <v>44926</v>
@@ -71276,7 +71279,7 @@
         <v>44768</v>
       </c>
       <c r="D2341" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2341" t="n">
         <v>0.333333333333333</v>
@@ -71296,7 +71299,7 @@
     </row>
     <row r="2342">
       <c r="A2342" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2342" s="1" t="n">
         <v>45291</v>
@@ -71305,7 +71308,7 @@
         <v>45111</v>
       </c>
       <c r="D2342" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2342" t="n">
         <v>0.333333333333333</v>
@@ -71325,7 +71328,7 @@
     </row>
     <row r="2343">
       <c r="A2343" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2343" s="1" t="n">
         <v>45657</v>
@@ -71334,7 +71337,7 @@
         <v>45497</v>
       </c>
       <c r="D2343" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2343" t="n">
         <v>0.333333333333333</v>
@@ -71354,7 +71357,7 @@
     </row>
     <row r="2344">
       <c r="A2344" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2344" s="1" t="n">
         <v>43465</v>
@@ -71363,7 +71366,7 @@
         <v>43413</v>
       </c>
       <c r="D2344" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2344" t="n">
         <v>0.361111111111111</v>
@@ -71383,7 +71386,7 @@
     </row>
     <row r="2345">
       <c r="A2345" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2345" s="1" t="n">
         <v>43830</v>
@@ -71392,7 +71395,7 @@
         <v>43677</v>
       </c>
       <c r="D2345" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2345" t="n">
         <v>0.361111111111111</v>
@@ -71412,7 +71415,7 @@
     </row>
     <row r="2346">
       <c r="A2346" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2346" s="1" t="n">
         <v>44196</v>
@@ -71421,7 +71424,7 @@
         <v>44104</v>
       </c>
       <c r="D2346" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2346" t="n">
         <v>0.361111111111111</v>
@@ -71441,7 +71444,7 @@
     </row>
     <row r="2347">
       <c r="A2347" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2347" s="1" t="n">
         <v>44561</v>
@@ -71450,7 +71453,7 @@
         <v>44412</v>
       </c>
       <c r="D2347" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2347" t="n">
         <v>0.361111111111111</v>
@@ -71470,7 +71473,7 @@
     </row>
     <row r="2348">
       <c r="A2348" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2348" s="1" t="n">
         <v>44926</v>
@@ -71479,7 +71482,7 @@
         <v>44771</v>
       </c>
       <c r="D2348" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2348" t="n">
         <v>0.361111111111111</v>
@@ -71499,7 +71502,7 @@
     </row>
     <row r="2349">
       <c r="A2349" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2349" s="1" t="n">
         <v>45291</v>
@@ -71508,7 +71511,7 @@
         <v>45138</v>
       </c>
       <c r="D2349" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2349" t="n">
         <v>0.361111111111111</v>
@@ -71528,7 +71531,7 @@
     </row>
     <row r="2350">
       <c r="A2350" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2350" s="1" t="n">
         <v>45657</v>
@@ -71537,7 +71540,7 @@
         <v>45499</v>
       </c>
       <c r="D2350" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2350" t="n">
         <v>0.361111111111111</v>
@@ -71557,7 +71560,7 @@
     </row>
     <row r="2351">
       <c r="A2351" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2351" s="1" t="n">
         <v>43465</v>
@@ -71566,7 +71569,7 @@
         <v>43402</v>
       </c>
       <c r="D2351" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2351" t="n">
         <v>0.805555555555556</v>
@@ -71586,7 +71589,7 @@
     </row>
     <row r="2352">
       <c r="A2352" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2352" s="1" t="n">
         <v>43830</v>
@@ -71595,7 +71598,7 @@
         <v>44043</v>
       </c>
       <c r="D2352" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2352" t="n">
         <v>0.694444444444444</v>
@@ -71615,7 +71618,7 @@
     </row>
     <row r="2353">
       <c r="A2353" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2353" s="1" t="n">
         <v>44196</v>
@@ -71624,7 +71627,7 @@
         <v>44285</v>
       </c>
       <c r="D2353" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2353" t="n">
         <v>0.722222222222222</v>
@@ -71644,7 +71647,7 @@
     </row>
     <row r="2354">
       <c r="A2354" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2354" s="1" t="n">
         <v>44561</v>
@@ -71653,7 +71656,7 @@
         <v>44407</v>
       </c>
       <c r="D2354" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2354" t="n">
         <v>0.694444444444444</v>
@@ -71673,7 +71676,7 @@
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2355" s="1" t="n">
         <v>44926</v>
@@ -71682,7 +71685,7 @@
         <v>44771</v>
       </c>
       <c r="D2355" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2355" t="n">
         <v>0.694444444444444</v>
@@ -71702,7 +71705,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2356" s="1" t="n">
         <v>45291</v>
@@ -71711,7 +71714,7 @@
         <v>45135</v>
       </c>
       <c r="D2356" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2356" t="n">
         <v>0.694444444444444</v>
@@ -71731,7 +71734,7 @@
     </row>
     <row r="2357">
       <c r="A2357" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2357" s="1" t="n">
         <v>45657</v>
@@ -71740,7 +71743,7 @@
         <v>45503</v>
       </c>
       <c r="D2357" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2357" t="n">
         <v>0.75</v>
@@ -71760,7 +71763,7 @@
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2358" s="1" t="n">
         <v>43465</v>
@@ -71769,7 +71772,7 @@
         <v>43404</v>
       </c>
       <c r="D2358" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2358" t="n">
         <v>0.583333333333333</v>
@@ -71789,7 +71792,7 @@
     </row>
     <row r="2359">
       <c r="A2359" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2359" s="1" t="n">
         <v>43830</v>
@@ -71798,7 +71801,7 @@
         <v>43676</v>
       </c>
       <c r="D2359" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2359" t="n">
         <v>0.694444444444444</v>
@@ -71818,7 +71821,7 @@
     </row>
     <row r="2360">
       <c r="A2360" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2360" s="1" t="n">
         <v>44196</v>
@@ -71827,7 +71830,7 @@
         <v>44043</v>
       </c>
       <c r="D2360" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2360" t="n">
         <v>0.694444444444444</v>
@@ -71847,7 +71850,7 @@
     </row>
     <row r="2361">
       <c r="A2361" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2361" s="1" t="n">
         <v>44561</v>
@@ -71856,7 +71859,7 @@
         <v>44407</v>
       </c>
       <c r="D2361" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2361" t="n">
         <v>0.694444444444444</v>
@@ -71876,7 +71879,7 @@
     </row>
     <row r="2362">
       <c r="A2362" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2362" s="1" t="n">
         <v>44926</v>
@@ -71885,7 +71888,7 @@
         <v>44771</v>
       </c>
       <c r="D2362" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2362" t="n">
         <v>0.694444444444444</v>
@@ -71905,7 +71908,7 @@
     </row>
     <row r="2363">
       <c r="A2363" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2363" s="1" t="n">
         <v>45291</v>
@@ -71914,7 +71917,7 @@
         <v>45138</v>
       </c>
       <c r="D2363" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2363" t="n">
         <v>0.75</v>
@@ -71934,7 +71937,7 @@
     </row>
     <row r="2364">
       <c r="A2364" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2364" s="1" t="n">
         <v>45657</v>
@@ -71943,7 +71946,7 @@
         <v>45504</v>
       </c>
       <c r="D2364" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2364" t="n">
         <v>0.638888888888889</v>
@@ -71963,7 +71966,7 @@
     </row>
     <row r="2365">
       <c r="A2365" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B2365" s="1" t="n">
         <v>43830</v>
@@ -71972,7 +71975,7 @@
         <v>43677</v>
       </c>
       <c r="D2365" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E2365" t="n">
         <v>0.361111111111111</v>
@@ -71992,7 +71995,7 @@
     </row>
     <row r="2366">
       <c r="A2366" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B2366" s="1" t="n">
         <v>44561</v>
@@ -72001,7 +72004,7 @@
         <v>44407</v>
       </c>
       <c r="D2366" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E2366" t="n">
         <v>0.527777777777778</v>
@@ -72021,7 +72024,7 @@
     </row>
     <row r="2367">
       <c r="A2367" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B2367" s="1" t="n">
         <v>44926</v>
@@ -72030,7 +72033,7 @@
         <v>44771</v>
       </c>
       <c r="D2367" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E2367" t="n">
         <v>0.555555555555556</v>
@@ -72050,7 +72053,7 @@
     </row>
     <row r="2368">
       <c r="A2368" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B2368" s="1" t="n">
         <v>45291</v>
@@ -72059,7 +72062,7 @@
         <v>45138</v>
       </c>
       <c r="D2368" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E2368" t="n">
         <v>0.555555555555556</v>
@@ -72079,7 +72082,7 @@
     </row>
     <row r="2369">
       <c r="A2369" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B2369" s="1" t="n">
         <v>45504</v>
@@ -72088,7 +72091,7 @@
         <v>45504</v>
       </c>
       <c r="D2369" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E2369" t="n">
         <v>0.555555555555556</v>
@@ -72108,7 +72111,7 @@
     </row>
     <row r="2370">
       <c r="A2370" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B2370" s="1" t="n">
         <v>44926</v>
@@ -72117,7 +72120,7 @@
         <v>44774</v>
       </c>
       <c r="D2370" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E2370" t="n">
         <v>0.5</v>
@@ -72137,7 +72140,7 @@
     </row>
     <row r="2371">
       <c r="A2371" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B2371" s="1" t="n">
         <v>45291</v>
@@ -72146,7 +72149,7 @@
         <v>45138</v>
       </c>
       <c r="D2371" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E2371" t="n">
         <v>0.472222222222222</v>
@@ -72166,7 +72169,7 @@
     </row>
     <row r="2372">
       <c r="A2372" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B2372" s="1" t="n">
         <v>45657</v>
@@ -72175,7 +72178,7 @@
         <v>45504</v>
       </c>
       <c r="D2372" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E2372" t="n">
         <v>0.5</v>
@@ -72195,7 +72198,7 @@
     </row>
     <row r="2373">
       <c r="A2373" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2373" s="1" t="n">
         <v>43830</v>
@@ -72204,7 +72207,7 @@
         <v>43677</v>
       </c>
       <c r="D2373" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2373" t="n">
         <v>0.444444444444444</v>
@@ -72224,7 +72227,7 @@
     </row>
     <row r="2374">
       <c r="A2374" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2374" s="1" t="n">
         <v>44196</v>
@@ -72233,7 +72236,7 @@
         <v>44104</v>
       </c>
       <c r="D2374" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2374" t="n">
         <v>0.444444444444444</v>
@@ -72253,7 +72256,7 @@
     </row>
     <row r="2375">
       <c r="A2375" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2375" s="1" t="n">
         <v>44561</v>
@@ -72262,7 +72265,7 @@
         <v>44435</v>
       </c>
       <c r="D2375" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2375" t="n">
         <v>0.444444444444444</v>
@@ -72282,7 +72285,7 @@
     </row>
     <row r="2376">
       <c r="A2376" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2376" s="1" t="n">
         <v>44926</v>
@@ -72291,7 +72294,7 @@
         <v>44771</v>
       </c>
       <c r="D2376" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2376" t="n">
         <v>0.444444444444444</v>
@@ -72311,7 +72314,7 @@
     </row>
     <row r="2377">
       <c r="A2377" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2377" s="1" t="n">
         <v>45291</v>
@@ -72320,7 +72323,7 @@
         <v>45138</v>
       </c>
       <c r="D2377" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2377" t="n">
         <v>0.5</v>
@@ -72340,7 +72343,7 @@
     </row>
     <row r="2378">
       <c r="A2378" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B2378" s="1" t="n">
         <v>45657</v>
@@ -72349,7 +72352,7 @@
         <v>45504</v>
       </c>
       <c r="D2378" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2378" t="n">
         <v>0.5</v>
@@ -72378,7 +72381,7 @@
         <v>43413</v>
       </c>
       <c r="D2379" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E2379" t="n">
         <v>0.583333333333333</v>
@@ -72398,7 +72401,7 @@
     </row>
     <row r="2380">
       <c r="A2380" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2380" s="1" t="n">
         <v>43830</v>
@@ -72407,7 +72410,7 @@
         <v>43675</v>
       </c>
       <c r="D2380" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2380" t="n">
         <v>0.722222222222222</v>
@@ -72427,7 +72430,7 @@
     </row>
     <row r="2381">
       <c r="A2381" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2381" s="1" t="n">
         <v>44196</v>
@@ -72436,7 +72439,7 @@
         <v>44104</v>
       </c>
       <c r="D2381" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2381" t="n">
         <v>0.722222222222222</v>
@@ -72456,7 +72459,7 @@
     </row>
     <row r="2382">
       <c r="A2382" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2382" s="1" t="n">
         <v>44561</v>
@@ -72465,7 +72468,7 @@
         <v>44407</v>
       </c>
       <c r="D2382" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2382" t="n">
         <v>0.722222222222222</v>
@@ -72485,7 +72488,7 @@
     </row>
     <row r="2383">
       <c r="A2383" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2383" s="1" t="n">
         <v>44926</v>
@@ -72494,7 +72497,7 @@
         <v>44771</v>
       </c>
       <c r="D2383" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2383" t="n">
         <v>0.833333333333333</v>
@@ -72514,7 +72517,7 @@
     </row>
     <row r="2384">
       <c r="A2384" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2384" s="1" t="n">
         <v>45291</v>
@@ -72523,7 +72526,7 @@
         <v>45138</v>
       </c>
       <c r="D2384" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2384" t="n">
         <v>0.833333333333333</v>
@@ -72543,7 +72546,7 @@
     </row>
     <row r="2385">
       <c r="A2385" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2385" s="1" t="n">
         <v>45657</v>
@@ -72552,7 +72555,7 @@
         <v>45503</v>
       </c>
       <c r="D2385" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2385" t="n">
         <v>0.833333333333333</v>
@@ -72572,7 +72575,7 @@
     </row>
     <row r="2386">
       <c r="A2386" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B2386" s="1" t="n">
         <v>45657</v>
@@ -72581,7 +72584,7 @@
         <v>45496</v>
       </c>
       <c r="D2386" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E2386" t="n">
         <v>0.416666666666667</v>
@@ -72601,7 +72604,7 @@
     </row>
     <row r="2387">
       <c r="A2387" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2387" s="1" t="n">
         <v>44561</v>
@@ -72610,7 +72613,7 @@
         <v>44411</v>
       </c>
       <c r="D2387" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2387" t="n">
         <v>0.75</v>
@@ -72630,7 +72633,7 @@
     </row>
     <row r="2388">
       <c r="A2388" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2388" s="1" t="n">
         <v>44926</v>
@@ -72639,7 +72642,7 @@
         <v>44771</v>
       </c>
       <c r="D2388" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2388" t="n">
         <v>0.75</v>
@@ -72659,7 +72662,7 @@
     </row>
     <row r="2389">
       <c r="A2389" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2389" s="1" t="n">
         <v>45291</v>
@@ -72668,7 +72671,7 @@
         <v>45132</v>
       </c>
       <c r="D2389" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2389" t="n">
         <v>0.75</v>
@@ -72688,7 +72691,7 @@
     </row>
     <row r="2390">
       <c r="A2390" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2390" s="1" t="n">
         <v>45657</v>
@@ -72697,7 +72700,7 @@
         <v>45503</v>
       </c>
       <c r="D2390" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2390" t="n">
         <v>0.75</v>
@@ -72717,7 +72720,7 @@
     </row>
     <row r="2391">
       <c r="A2391" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2391" s="1" t="n">
         <v>44196</v>
@@ -72726,7 +72729,7 @@
         <v>44104</v>
       </c>
       <c r="D2391" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2391" t="n">
         <v>0.5</v>
@@ -72746,7 +72749,7 @@
     </row>
     <row r="2392">
       <c r="A2392" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2392" s="1" t="n">
         <v>44561</v>
@@ -72755,7 +72758,7 @@
         <v>44407</v>
       </c>
       <c r="D2392" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2392" t="n">
         <v>0.583333333333333</v>
@@ -72775,7 +72778,7 @@
     </row>
     <row r="2393">
       <c r="A2393" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2393" s="1" t="n">
         <v>44926</v>
@@ -72784,7 +72787,7 @@
         <v>44771</v>
       </c>
       <c r="D2393" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2393" t="n">
         <v>0.583333333333333</v>
@@ -72804,7 +72807,7 @@
     </row>
     <row r="2394">
       <c r="A2394" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2394" s="1" t="n">
         <v>45291</v>
@@ -72813,7 +72816,7 @@
         <v>45138</v>
       </c>
       <c r="D2394" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2394" t="n">
         <v>0.583333333333333</v>
@@ -72833,7 +72836,7 @@
     </row>
     <row r="2395">
       <c r="A2395" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2395" s="1" t="n">
         <v>45657</v>
@@ -72842,7 +72845,7 @@
         <v>45504</v>
       </c>
       <c r="D2395" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2395" t="n">
         <v>0.583333333333333</v>
@@ -72862,7 +72865,7 @@
     </row>
     <row r="2396">
       <c r="A2396" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2396" s="1" t="n">
         <v>43830</v>
@@ -72871,7 +72874,7 @@
         <v>43677</v>
       </c>
       <c r="D2396" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2396" t="n">
         <v>0.611111111111111</v>
@@ -72891,7 +72894,7 @@
     </row>
     <row r="2397">
       <c r="A2397" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2397" s="1" t="n">
         <v>44196</v>
@@ -72900,7 +72903,7 @@
         <v>44104</v>
       </c>
       <c r="D2397" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2397" t="n">
         <v>0.555555555555556</v>
@@ -72920,7 +72923,7 @@
     </row>
     <row r="2398">
       <c r="A2398" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2398" s="1" t="n">
         <v>44561</v>
@@ -72929,7 +72932,7 @@
         <v>44407</v>
       </c>
       <c r="D2398" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2398" t="n">
         <v>0.75</v>
@@ -72949,7 +72952,7 @@
     </row>
     <row r="2399">
       <c r="A2399" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2399" s="1" t="n">
         <v>44926</v>
@@ -72958,7 +72961,7 @@
         <v>44761</v>
       </c>
       <c r="D2399" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2399" t="n">
         <v>0.555555555555556</v>
@@ -72978,7 +72981,7 @@
     </row>
     <row r="2400">
       <c r="A2400" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2400" s="1" t="n">
         <v>45291</v>
@@ -72987,7 +72990,7 @@
         <v>45134</v>
       </c>
       <c r="D2400" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2400" t="n">
         <v>0.555555555555556</v>
@@ -73007,7 +73010,7 @@
     </row>
     <row r="2401">
       <c r="A2401" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2401" s="1" t="n">
         <v>45657</v>
@@ -73016,7 +73019,7 @@
         <v>45504</v>
       </c>
       <c r="D2401" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2401" t="n">
         <v>0.555555555555556</v>
@@ -73036,7 +73039,7 @@
     </row>
     <row r="2402">
       <c r="A2402" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2402" s="1" t="n">
         <v>43830</v>
@@ -73045,7 +73048,7 @@
         <v>43658</v>
       </c>
       <c r="D2402" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2402" t="n">
         <v>0.75</v>
@@ -73065,7 +73068,7 @@
     </row>
     <row r="2403">
       <c r="A2403" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2403" s="1" t="n">
         <v>44196</v>
@@ -73074,7 +73077,7 @@
         <v>44181</v>
       </c>
       <c r="D2403" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2403" t="n">
         <v>0.75</v>
@@ -73094,7 +73097,7 @@
     </row>
     <row r="2404">
       <c r="A2404" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2404" s="1" t="n">
         <v>44561</v>
@@ -73103,7 +73106,7 @@
         <v>44410</v>
       </c>
       <c r="D2404" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2404" t="n">
         <v>0.777777777777778</v>
@@ -73123,7 +73126,7 @@
     </row>
     <row r="2405">
       <c r="A2405" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2405" s="1" t="n">
         <v>44926</v>
@@ -73132,7 +73135,7 @@
         <v>44770</v>
       </c>
       <c r="D2405" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2405" t="n">
         <v>0.777777777777778</v>
@@ -73152,7 +73155,7 @@
     </row>
     <row r="2406">
       <c r="A2406" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2406" s="1" t="n">
         <v>45291</v>
@@ -73161,7 +73164,7 @@
         <v>45133</v>
       </c>
       <c r="D2406" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2406" t="n">
         <v>0.777777777777778</v>
@@ -73181,7 +73184,7 @@
     </row>
     <row r="2407">
       <c r="A2407" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2407" s="1" t="n">
         <v>45657</v>
@@ -73190,7 +73193,7 @@
         <v>45503</v>
       </c>
       <c r="D2407" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2407" t="n">
         <v>0.777777777777778</v>
@@ -73210,7 +73213,7 @@
     </row>
     <row r="2408">
       <c r="A2408" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2408" s="1" t="n">
         <v>43830</v>
@@ -73219,7 +73222,7 @@
         <v>43676</v>
       </c>
       <c r="D2408" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2408" t="n">
         <v>0.444444444444444</v>
@@ -73239,7 +73242,7 @@
     </row>
     <row r="2409">
       <c r="A2409" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2409" s="1" t="n">
         <v>44196</v>
@@ -73248,7 +73251,7 @@
         <v>44074</v>
       </c>
       <c r="D2409" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2409" t="n">
         <v>0.444444444444444</v>
@@ -73268,7 +73271,7 @@
     </row>
     <row r="2410">
       <c r="A2410" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2410" s="1" t="n">
         <v>44561</v>
@@ -73277,7 +73280,7 @@
         <v>44407</v>
       </c>
       <c r="D2410" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2410" t="n">
         <v>0.444444444444444</v>
@@ -73297,7 +73300,7 @@
     </row>
     <row r="2411">
       <c r="A2411" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2411" s="1" t="n">
         <v>44926</v>
@@ -73306,7 +73309,7 @@
         <v>44771</v>
       </c>
       <c r="D2411" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2411" t="n">
         <v>0.444444444444444</v>
@@ -73326,7 +73329,7 @@
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2412" s="1" t="n">
         <v>45291</v>
@@ -73335,7 +73338,7 @@
         <v>45135</v>
       </c>
       <c r="D2412" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2412" t="n">
         <v>0.444444444444444</v>
@@ -73355,7 +73358,7 @@
     </row>
     <row r="2413">
       <c r="A2413" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2413" s="1" t="n">
         <v>45657</v>
@@ -73364,7 +73367,7 @@
         <v>45502</v>
       </c>
       <c r="D2413" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2413" t="n">
         <v>0.444444444444444</v>
@@ -73384,7 +73387,7 @@
     </row>
     <row r="2414">
       <c r="A2414" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2414" s="1" t="n">
         <v>44561</v>
@@ -73393,7 +73396,7 @@
         <v>44410</v>
       </c>
       <c r="D2414" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2414" t="n">
         <v>0.722222222222222</v>
@@ -73413,7 +73416,7 @@
     </row>
     <row r="2415">
       <c r="A2415" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2415" s="1" t="n">
         <v>45291</v>
@@ -73422,7 +73425,7 @@
         <v>45137</v>
       </c>
       <c r="D2415" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2415" t="n">
         <v>0.722222222222222</v>
@@ -73442,7 +73445,7 @@
     </row>
     <row r="2416">
       <c r="A2416" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2416" s="1" t="n">
         <v>45657</v>
@@ -73451,7 +73454,7 @@
         <v>45504</v>
       </c>
       <c r="D2416" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2416" t="n">
         <v>0.722222222222222</v>
@@ -73471,7 +73474,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2417" s="1" t="n">
         <v>43465</v>
@@ -73480,7 +73483,7 @@
         <v>43404</v>
       </c>
       <c r="D2417" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2417" t="n">
         <v>0.75</v>
@@ -73500,7 +73503,7 @@
     </row>
     <row r="2418">
       <c r="A2418" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2418" s="1" t="n">
         <v>43830</v>
@@ -73509,7 +73512,7 @@
         <v>43676</v>
       </c>
       <c r="D2418" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2418" t="n">
         <v>0.75</v>
@@ -73529,7 +73532,7 @@
     </row>
     <row r="2419">
       <c r="A2419" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2419" s="1" t="n">
         <v>44196</v>
@@ -73538,7 +73541,7 @@
         <v>44104</v>
       </c>
       <c r="D2419" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2419" t="n">
         <v>0.75</v>
@@ -73558,7 +73561,7 @@
     </row>
     <row r="2420">
       <c r="A2420" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2420" s="1" t="n">
         <v>44561</v>
@@ -73567,7 +73570,7 @@
         <v>44407</v>
       </c>
       <c r="D2420" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2420" t="n">
         <v>0.75</v>
@@ -73587,7 +73590,7 @@
     </row>
     <row r="2421">
       <c r="A2421" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2421" s="1" t="n">
         <v>44926</v>
@@ -73596,7 +73599,7 @@
         <v>44771</v>
       </c>
       <c r="D2421" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2421" t="n">
         <v>0.75</v>
@@ -73616,7 +73619,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2422" s="1" t="n">
         <v>45291</v>
@@ -73625,7 +73628,7 @@
         <v>45138</v>
       </c>
       <c r="D2422" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2422" t="n">
         <v>0.75</v>
@@ -73645,7 +73648,7 @@
     </row>
     <row r="2423">
       <c r="A2423" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2423" s="1" t="n">
         <v>44561</v>
@@ -73654,7 +73657,7 @@
         <v>44407</v>
       </c>
       <c r="D2423" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E2423" t="n">
         <v>0.444444444444444</v>
@@ -73674,7 +73677,7 @@
     </row>
     <row r="2424">
       <c r="A2424" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2424" s="1" t="n">
         <v>44926</v>
@@ -73683,7 +73686,7 @@
         <v>44771</v>
       </c>
       <c r="D2424" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E2424" t="n">
         <v>0.444444444444444</v>
@@ -73703,7 +73706,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2425" s="1" t="n">
         <v>45291</v>
@@ -73712,7 +73715,7 @@
         <v>45138</v>
       </c>
       <c r="D2425" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E2425" t="n">
         <v>0.444444444444444</v>
@@ -73732,7 +73735,7 @@
     </row>
     <row r="2426">
       <c r="A2426" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2426" s="1" t="n">
         <v>45657</v>
@@ -73741,7 +73744,7 @@
         <v>45504</v>
       </c>
       <c r="D2426" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E2426" t="n">
         <v>0.444444444444444</v>
@@ -73761,7 +73764,7 @@
     </row>
     <row r="2427">
       <c r="A2427" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2427" s="1" t="n">
         <v>43830</v>
@@ -73770,7 +73773,7 @@
         <v>43677</v>
       </c>
       <c r="D2427" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2427" t="n">
         <v>0.388888888888889</v>
@@ -73790,7 +73793,7 @@
     </row>
     <row r="2428">
       <c r="A2428" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2428" s="1" t="n">
         <v>44196</v>
@@ -73799,7 +73802,7 @@
         <v>44097</v>
       </c>
       <c r="D2428" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2428" t="n">
         <v>0.388888888888889</v>
@@ -73819,7 +73822,7 @@
     </row>
     <row r="2429">
       <c r="A2429" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2429" s="1" t="n">
         <v>44561</v>
@@ -73828,7 +73831,7 @@
         <v>44405</v>
       </c>
       <c r="D2429" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2429" t="n">
         <v>0.388888888888889</v>
@@ -73848,7 +73851,7 @@
     </row>
     <row r="2430">
       <c r="A2430" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2430" s="1" t="n">
         <v>44926</v>
@@ -73857,7 +73860,7 @@
         <v>44774</v>
       </c>
       <c r="D2430" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2430" t="n">
         <v>0.388888888888889</v>
@@ -73877,7 +73880,7 @@
     </row>
     <row r="2431">
       <c r="A2431" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2431" s="1" t="n">
         <v>45291</v>
@@ -73886,7 +73889,7 @@
         <v>45138</v>
       </c>
       <c r="D2431" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2431" t="n">
         <v>0.388888888888889</v>
@@ -73906,7 +73909,7 @@
     </row>
     <row r="2432">
       <c r="A2432" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2432" s="1" t="n">
         <v>45657</v>
@@ -73915,7 +73918,7 @@
         <v>45503</v>
       </c>
       <c r="D2432" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2432" t="n">
         <v>0.388888888888889</v>
@@ -73935,7 +73938,7 @@
     </row>
     <row r="2433">
       <c r="A2433" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2433" s="1" t="n">
         <v>43830</v>
@@ -73944,7 +73947,7 @@
         <v>43677</v>
       </c>
       <c r="D2433" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2433" t="n">
         <v>0.222222222222222</v>
@@ -73964,7 +73967,7 @@
     </row>
     <row r="2434">
       <c r="A2434" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2434" s="1" t="n">
         <v>44196</v>
@@ -73973,7 +73976,7 @@
         <v>44104</v>
       </c>
       <c r="D2434" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2434" t="n">
         <v>0.222222222222222</v>
@@ -73993,7 +73996,7 @@
     </row>
     <row r="2435">
       <c r="A2435" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2435" s="1" t="n">
         <v>44561</v>
@@ -74002,7 +74005,7 @@
         <v>44410</v>
       </c>
       <c r="D2435" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2435" t="n">
         <v>0.222222222222222</v>
@@ -74022,7 +74025,7 @@
     </row>
     <row r="2436">
       <c r="A2436" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2436" s="1" t="n">
         <v>44926</v>
@@ -74031,7 +74034,7 @@
         <v>44770</v>
       </c>
       <c r="D2436" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2436" t="n">
         <v>0.25</v>
@@ -74051,7 +74054,7 @@
     </row>
     <row r="2437">
       <c r="A2437" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2437" s="1" t="n">
         <v>45291</v>
@@ -74060,7 +74063,7 @@
         <v>45135</v>
       </c>
       <c r="D2437" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2437" t="n">
         <v>0.25</v>
@@ -74080,7 +74083,7 @@
     </row>
     <row r="2438">
       <c r="A2438" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2438" s="1" t="n">
         <v>45657</v>
@@ -74089,7 +74092,7 @@
         <v>45502</v>
       </c>
       <c r="D2438" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2438" t="n">
         <v>0.25</v>
@@ -74109,7 +74112,7 @@
     </row>
     <row r="2439">
       <c r="A2439" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B2439" s="1" t="n">
         <v>43830</v>
@@ -74118,7 +74121,7 @@
         <v>43677</v>
       </c>
       <c r="D2439" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E2439" t="n">
         <v>0.694444444444444</v>
@@ -74138,7 +74141,7 @@
     </row>
     <row r="2440">
       <c r="A2440" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B2440" s="1" t="n">
         <v>44196</v>
@@ -74147,7 +74150,7 @@
         <v>44043</v>
       </c>
       <c r="D2440" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E2440" t="n">
         <v>0.694444444444444</v>
@@ -74167,7 +74170,7 @@
     </row>
     <row r="2441">
       <c r="A2441" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B2441" s="1" t="n">
         <v>44561</v>
@@ -74176,7 +74179,7 @@
         <v>44333</v>
       </c>
       <c r="D2441" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E2441" t="n">
         <v>0.694444444444444</v>
@@ -74196,7 +74199,7 @@
     </row>
     <row r="2442">
       <c r="A2442" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B2442" s="1" t="n">
         <v>44926</v>
@@ -74205,7 +74208,7 @@
         <v>44742</v>
       </c>
       <c r="D2442" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E2442" t="n">
         <v>0.75</v>
@@ -74225,7 +74228,7 @@
     </row>
     <row r="2443">
       <c r="A2443" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B2443" s="1" t="n">
         <v>45291</v>
@@ -74234,7 +74237,7 @@
         <v>45106</v>
       </c>
       <c r="D2443" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E2443" t="n">
         <v>0.75</v>
@@ -74254,7 +74257,7 @@
     </row>
     <row r="2444">
       <c r="A2444" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B2444" s="1" t="n">
         <v>45657</v>
@@ -74263,7 +74266,7 @@
         <v>45488</v>
       </c>
       <c r="D2444" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E2444" t="n">
         <v>0.722222222222222</v>
@@ -74283,7 +74286,7 @@
     </row>
     <row r="2445">
       <c r="A2445" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2445" s="1" t="n">
         <v>43465</v>
@@ -74292,7 +74295,7 @@
         <v>43402</v>
       </c>
       <c r="D2445" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2445" t="n">
         <v>0.722222222222222</v>
@@ -74312,7 +74315,7 @@
     </row>
     <row r="2446">
       <c r="A2446" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2446" s="1" t="n">
         <v>43830</v>
@@ -74321,7 +74324,7 @@
         <v>43677</v>
       </c>
       <c r="D2446" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2446" t="n">
         <v>0.722222222222222</v>
@@ -74341,7 +74344,7 @@
     </row>
     <row r="2447">
       <c r="A2447" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2447" s="1" t="n">
         <v>44196</v>
@@ -74350,7 +74353,7 @@
         <v>44043</v>
       </c>
       <c r="D2447" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2447" t="n">
         <v>0.722222222222222</v>
@@ -74370,7 +74373,7 @@
     </row>
     <row r="2448">
       <c r="A2448" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2448" s="1" t="n">
         <v>44561</v>
@@ -74379,7 +74382,7 @@
         <v>44407</v>
       </c>
       <c r="D2448" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2448" t="n">
         <v>0.722222222222222</v>
@@ -74399,7 +74402,7 @@
     </row>
     <row r="2449">
       <c r="A2449" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2449" s="1" t="n">
         <v>44926</v>
@@ -74408,7 +74411,7 @@
         <v>44771</v>
       </c>
       <c r="D2449" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2449" t="n">
         <v>0.722222222222222</v>
@@ -74428,7 +74431,7 @@
     </row>
     <row r="2450">
       <c r="A2450" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2450" s="1" t="n">
         <v>45291</v>
@@ -74437,7 +74440,7 @@
         <v>45138</v>
       </c>
       <c r="D2450" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2450" t="n">
         <v>0.722222222222222</v>
@@ -74457,7 +74460,7 @@
     </row>
     <row r="2451">
       <c r="A2451" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B2451" s="1" t="n">
         <v>45657</v>
@@ -74466,7 +74469,7 @@
         <v>45483</v>
       </c>
       <c r="D2451" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E2451" t="n">
         <v>0.722222222222222</v>
@@ -74486,7 +74489,7 @@
     </row>
     <row r="2452">
       <c r="A2452" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2452" s="1" t="n">
         <v>43830</v>
@@ -74495,7 +74498,7 @@
         <v>43671</v>
       </c>
       <c r="D2452" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2452" t="n">
         <v>0.277777777777778</v>
@@ -74515,7 +74518,7 @@
     </row>
     <row r="2453">
       <c r="A2453" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2453" s="1" t="n">
         <v>44196</v>
@@ -74524,7 +74527,7 @@
         <v>44074</v>
       </c>
       <c r="D2453" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2453" t="n">
         <v>0.277777777777778</v>
@@ -74544,7 +74547,7 @@
     </row>
     <row r="2454">
       <c r="A2454" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2454" s="1" t="n">
         <v>44561</v>
@@ -74553,7 +74556,7 @@
         <v>44406</v>
       </c>
       <c r="D2454" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2454" t="n">
         <v>0.277777777777778</v>
@@ -74573,7 +74576,7 @@
     </row>
     <row r="2455">
       <c r="A2455" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2455" s="1" t="n">
         <v>44926</v>
@@ -74582,7 +74585,7 @@
         <v>44771</v>
       </c>
       <c r="D2455" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2455" t="n">
         <v>0.277777777777778</v>
@@ -74602,7 +74605,7 @@
     </row>
     <row r="2456">
       <c r="A2456" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2456" s="1" t="n">
         <v>45291</v>
@@ -74611,7 +74614,7 @@
         <v>45138</v>
       </c>
       <c r="D2456" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2456" t="n">
         <v>0.277777777777778</v>
@@ -74631,7 +74634,7 @@
     </row>
     <row r="2457">
       <c r="A2457" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2457" s="1" t="n">
         <v>45657</v>
@@ -74640,7 +74643,7 @@
         <v>45504</v>
       </c>
       <c r="D2457" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2457" t="n">
         <v>0.277777777777778</v>
@@ -74660,7 +74663,7 @@
     </row>
     <row r="2458">
       <c r="A2458" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2458" s="1" t="n">
         <v>43830</v>
@@ -74669,7 +74672,7 @@
         <v>43676</v>
       </c>
       <c r="D2458" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2458" t="n">
         <v>0.388888888888889</v>
@@ -74689,7 +74692,7 @@
     </row>
     <row r="2459">
       <c r="A2459" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2459" s="1" t="n">
         <v>44196</v>
@@ -74698,7 +74701,7 @@
         <v>44090</v>
       </c>
       <c r="D2459" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2459" t="n">
         <v>0.388888888888889</v>
@@ -74718,7 +74721,7 @@
     </row>
     <row r="2460">
       <c r="A2460" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2460" s="1" t="n">
         <v>44561</v>
@@ -74727,7 +74730,7 @@
         <v>44410</v>
       </c>
       <c r="D2460" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2460" t="n">
         <v>0.388888888888889</v>
@@ -74747,7 +74750,7 @@
     </row>
     <row r="2461">
       <c r="A2461" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2461" s="1" t="n">
         <v>45291</v>
@@ -74756,7 +74759,7 @@
         <v>45138</v>
       </c>
       <c r="D2461" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2461" t="n">
         <v>0.333333333333333</v>
@@ -74776,7 +74779,7 @@
     </row>
     <row r="2462">
       <c r="A2462" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2462" s="1" t="n">
         <v>43465</v>
@@ -74785,7 +74788,7 @@
         <v>43402</v>
       </c>
       <c r="D2462" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2462" t="n">
         <v>0.75</v>
@@ -74805,7 +74808,7 @@
     </row>
     <row r="2463">
       <c r="A2463" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2463" s="1" t="n">
         <v>43830</v>
@@ -74814,7 +74817,7 @@
         <v>43676</v>
       </c>
       <c r="D2463" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2463" t="n">
         <v>0.722222222222222</v>
@@ -74834,7 +74837,7 @@
     </row>
     <row r="2464">
       <c r="A2464" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2464" s="1" t="n">
         <v>44196</v>
@@ -74843,7 +74846,7 @@
         <v>44029</v>
       </c>
       <c r="D2464" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2464" t="n">
         <v>0.694444444444444</v>
@@ -74863,7 +74866,7 @@
     </row>
     <row r="2465">
       <c r="A2465" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2465" s="1" t="n">
         <v>44561</v>
@@ -74872,7 +74875,7 @@
         <v>44410</v>
       </c>
       <c r="D2465" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2465" t="n">
         <v>0.694444444444444</v>
@@ -74892,7 +74895,7 @@
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2466" s="1" t="n">
         <v>44926</v>
@@ -74901,7 +74904,7 @@
         <v>44761</v>
       </c>
       <c r="D2466" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2466" t="n">
         <v>0.694444444444444</v>
@@ -74921,7 +74924,7 @@
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2467" s="1" t="n">
         <v>45291</v>
@@ -74930,7 +74933,7 @@
         <v>45138</v>
       </c>
       <c r="D2467" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2467" t="n">
         <v>0.694444444444444</v>
@@ -74950,7 +74953,7 @@
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2468" s="1" t="n">
         <v>45657</v>
@@ -74959,7 +74962,7 @@
         <v>45546</v>
       </c>
       <c r="D2468" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2468" t="n">
         <v>0.694444444444444</v>
@@ -74979,7 +74982,7 @@
     </row>
     <row r="2469">
       <c r="A2469" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2469" s="1" t="n">
         <v>44561</v>
@@ -74988,7 +74991,7 @@
         <v>44406</v>
       </c>
       <c r="D2469" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E2469" t="n">
         <v>0.583333333333333</v>
@@ -75008,7 +75011,7 @@
     </row>
     <row r="2470">
       <c r="A2470" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2470" s="1" t="n">
         <v>44926</v>
@@ -75017,7 +75020,7 @@
         <v>44771</v>
       </c>
       <c r="D2470" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E2470" t="n">
         <v>0.583333333333333</v>
@@ -75037,7 +75040,7 @@
     </row>
     <row r="2471">
       <c r="A2471" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2471" s="1" t="n">
         <v>45291</v>
@@ -75046,7 +75049,7 @@
         <v>45138</v>
       </c>
       <c r="D2471" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E2471" t="n">
         <v>0.583333333333333</v>
@@ -75066,7 +75069,7 @@
     </row>
     <row r="2472">
       <c r="A2472" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2472" s="1" t="n">
         <v>45657</v>
@@ -75075,7 +75078,7 @@
         <v>45502</v>
       </c>
       <c r="D2472" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E2472" t="n">
         <v>0.583333333333333</v>
@@ -75095,7 +75098,7 @@
     </row>
     <row r="2473">
       <c r="A2473" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2473" s="1" t="n">
         <v>43830</v>
@@ -75104,7 +75107,7 @@
         <v>43676</v>
       </c>
       <c r="D2473" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2473" t="n">
         <v>0.416666666666667</v>
@@ -75124,7 +75127,7 @@
     </row>
     <row r="2474">
       <c r="A2474" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2474" s="1" t="n">
         <v>44196</v>
@@ -75133,7 +75136,7 @@
         <v>44103</v>
       </c>
       <c r="D2474" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2474" t="n">
         <v>0.416666666666667</v>
@@ -75153,7 +75156,7 @@
     </row>
     <row r="2475">
       <c r="A2475" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2475" s="1" t="n">
         <v>44561</v>
@@ -75162,7 +75165,7 @@
         <v>44406</v>
       </c>
       <c r="D2475" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2475" t="n">
         <v>0.444444444444444</v>
@@ -75182,7 +75185,7 @@
     </row>
     <row r="2476">
       <c r="A2476" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2476" s="1" t="n">
         <v>44926</v>
@@ -75191,7 +75194,7 @@
         <v>44771</v>
       </c>
       <c r="D2476" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2476" t="n">
         <v>0.444444444444444</v>
@@ -75211,7 +75214,7 @@
     </row>
     <row r="2477">
       <c r="A2477" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2477" s="1" t="n">
         <v>45291</v>
@@ -75220,7 +75223,7 @@
         <v>45138</v>
       </c>
       <c r="D2477" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2477" t="n">
         <v>0.416666666666667</v>
@@ -75240,7 +75243,7 @@
     </row>
     <row r="2478">
       <c r="A2478" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2478" s="1" t="n">
         <v>45657</v>
@@ -75249,7 +75252,7 @@
         <v>45504</v>
       </c>
       <c r="D2478" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2478" t="n">
         <v>0.444444444444444</v>

--- a/public/docs/index_05_dim_CG.xlsx
+++ b/public/docs/index_05_dim_CG.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">08.773.135/0001-00</t>
   </si>
   <si>
-    <t xml:space="preserve">2W ECOBANK S.A.</t>
+    <t xml:space="preserve">2W ECOBANK S.A. - EM RECUPERAÇÃO JUDICIAL</t>
   </si>
   <si>
     <t xml:space="preserve">01.851.771/0001-55</t>
